--- a/raw_data/XMR-USD_4h_process.xlsx
+++ b/raw_data/XMR-USD_4h_process.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="196">
   <si>
     <t>Open</t>
   </si>
@@ -58,129 +58,6 @@
     <t>sell_rsi_9</t>
   </si>
   <si>
-    <t>2023-12-27 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-27 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-03 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-03 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-03 09:00:00-03:00</t>
-  </si>
-  <si>
     <t>2024-01-03 13:00:00-03:00</t>
   </si>
   <si>
@@ -599,6 +476,129 @@
   </si>
   <si>
     <t>2024-01-26 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-26 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 13:00:00-03:00</t>
   </si>
   <si>
     <t>yes</t>
@@ -1014,19 +1014,19 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>174.3510894775391</v>
+        <v>158.3515777587891</v>
       </c>
       <c r="C2">
-        <v>175.6253356933594</v>
+        <v>158.8842315673828</v>
       </c>
       <c r="D2">
-        <v>173.5474395751953</v>
+        <v>154.3982543945312</v>
       </c>
       <c r="E2">
-        <v>175.4971618652344</v>
+        <v>156.1920928955078</v>
       </c>
       <c r="F2">
-        <v>1791912</v>
+        <v>1525152</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1034,19 +1034,19 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>175.5259399414062</v>
+        <v>156.2508544921875</v>
       </c>
       <c r="C3">
-        <v>180.386734008789</v>
+        <v>157.3699951171875</v>
       </c>
       <c r="D3">
-        <v>175.5259399414062</v>
+        <v>154.4481353759766</v>
       </c>
       <c r="E3">
-        <v>179.0389404296875</v>
+        <v>154.5570526123047</v>
       </c>
       <c r="F3">
-        <v>22049360</v>
+        <v>2538176</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1054,19 +1054,19 @@
         <v>16</v>
       </c>
       <c r="B4">
-        <v>179.0457305908203</v>
+        <v>154.5899963378906</v>
       </c>
       <c r="C4">
-        <v>179.4119415283203</v>
+        <v>155.8046569824219</v>
       </c>
       <c r="D4">
-        <v>175.2957611083984</v>
+        <v>154.0250549316406</v>
       </c>
       <c r="E4">
-        <v>175.2964630126953</v>
+        <v>154.5539703369141</v>
       </c>
       <c r="F4">
-        <v>3076288</v>
+        <v>2421536</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1074,19 +1074,19 @@
         <v>17</v>
       </c>
       <c r="B5">
-        <v>175.299072265625</v>
+        <v>154.5504150390625</v>
       </c>
       <c r="C5">
-        <v>177.269287109375</v>
+        <v>154.6370697021484</v>
       </c>
       <c r="D5">
-        <v>174.9330596923828</v>
+        <v>151.1730346679688</v>
       </c>
       <c r="E5">
-        <v>175.9017333984375</v>
+        <v>153.2661743164062</v>
       </c>
       <c r="F5">
-        <v>3945088</v>
+        <v>8810704</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1094,19 +1094,19 @@
         <v>18</v>
       </c>
       <c r="B6">
-        <v>175.9071960449219</v>
+        <v>153.5961761474609</v>
       </c>
       <c r="C6">
-        <v>176.1560974121094</v>
+        <v>158.3579711914062</v>
       </c>
       <c r="D6">
-        <v>173.2545318603516</v>
+        <v>152.565673828125</v>
       </c>
       <c r="E6">
-        <v>174.6109008789062</v>
+        <v>157.3436126708984</v>
       </c>
       <c r="F6">
-        <v>6416824</v>
+        <v>25141040</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1114,19 +1114,19 @@
         <v>19</v>
       </c>
       <c r="B7">
-        <v>174.6180419921875</v>
+        <v>157.3633422851562</v>
       </c>
       <c r="C7">
-        <v>177.3070831298828</v>
+        <v>162.3757934570312</v>
       </c>
       <c r="D7">
-        <v>174.6180419921875</v>
+        <v>156.6484680175781</v>
       </c>
       <c r="E7">
-        <v>177.2520141601562</v>
+        <v>162.3757934570312</v>
       </c>
       <c r="F7">
-        <v>8263888</v>
+        <v>3346640</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1134,19 +1134,19 @@
         <v>20</v>
       </c>
       <c r="B8">
-        <v>177.2377471923828</v>
+        <v>162.383056640625</v>
       </c>
       <c r="C8">
-        <v>177.2377471923828</v>
+        <v>164.6397705078125</v>
       </c>
       <c r="D8">
-        <v>175.1791839599609</v>
+        <v>162.3193054199219</v>
       </c>
       <c r="E8">
-        <v>175.2345275878906</v>
+        <v>163.7349395751953</v>
       </c>
       <c r="F8">
-        <v>4989864</v>
+        <v>5536240</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1154,19 +1154,19 @@
         <v>21</v>
       </c>
       <c r="B9">
-        <v>175.2602081298828</v>
+        <v>163.7410125732422</v>
       </c>
       <c r="C9">
-        <v>175.7424011230469</v>
+        <v>164.7282104492188</v>
       </c>
       <c r="D9">
-        <v>173.6714324951172</v>
+        <v>161.7473602294922</v>
       </c>
       <c r="E9">
-        <v>175.1240386962891</v>
+        <v>164.7282104492188</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>7306048</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1174,19 +1174,19 @@
         <v>22</v>
       </c>
       <c r="B10">
-        <v>175.1189880371094</v>
+        <v>164.6835632324219</v>
       </c>
       <c r="C10">
-        <v>176.2906646728516</v>
+        <v>164.7783355712891</v>
       </c>
       <c r="D10">
-        <v>175.0092620849609</v>
+        <v>160.0000915527344</v>
       </c>
       <c r="E10">
-        <v>175.7870178222656</v>
+        <v>160.4376831054688</v>
       </c>
       <c r="F10">
-        <v>3824704</v>
+        <v>10529968</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1194,22 +1194,22 @@
         <v>23</v>
       </c>
       <c r="B11">
-        <v>175.6932678222656</v>
+        <v>160.4381713867188</v>
       </c>
       <c r="C11">
-        <v>175.6932678222656</v>
+        <v>161.5646362304688</v>
       </c>
       <c r="D11">
-        <v>172.08154296875</v>
+        <v>158.5466156005859</v>
       </c>
       <c r="E11">
-        <v>172.0919647216797</v>
+        <v>159.4109649658203</v>
       </c>
       <c r="F11">
-        <v>2316008</v>
+        <v>3878224</v>
       </c>
       <c r="L11">
-        <v>34.13994478316922</v>
+        <v>53.88174385364216</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1217,25 +1217,22 @@
         <v>24</v>
       </c>
       <c r="B12">
-        <v>172.1042022705078</v>
+        <v>159.3695068359375</v>
       </c>
       <c r="C12">
-        <v>172.5270385742188</v>
+        <v>164.0384674072266</v>
       </c>
       <c r="D12">
-        <v>166.1178741455078</v>
+        <v>158.8343963623047</v>
       </c>
       <c r="E12">
-        <v>167.0737152099609</v>
+        <v>159.0789031982422</v>
       </c>
       <c r="F12">
-        <v>8447456</v>
+        <v>232880</v>
       </c>
       <c r="L12">
-        <v>22.88134098724988</v>
-      </c>
-      <c r="N12" t="s">
-        <v>195</v>
+        <v>52.40512738989508</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1243,25 +1240,22 @@
         <v>25</v>
       </c>
       <c r="B13">
-        <v>167.114013671875</v>
+        <v>159.1148681640625</v>
       </c>
       <c r="C13">
-        <v>167.2576599121094</v>
+        <v>160.3510894775391</v>
       </c>
       <c r="D13">
-        <v>163.1440734863281</v>
+        <v>158.0355377197266</v>
       </c>
       <c r="E13">
-        <v>164.7960510253906</v>
+        <v>158.5658111572266</v>
       </c>
       <c r="F13">
-        <v>12050944</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>19.58368010695115</v>
-      </c>
-      <c r="N13" t="s">
-        <v>195</v>
+        <v>50.02216350766853</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1269,25 +1263,22 @@
         <v>26</v>
       </c>
       <c r="B14">
-        <v>164.8321533203125</v>
+        <v>158.8649444580078</v>
       </c>
       <c r="C14">
-        <v>167.2214202880859</v>
+        <v>160.9463500976562</v>
       </c>
       <c r="D14">
-        <v>163.8805389404297</v>
+        <v>156.2957611083984</v>
       </c>
       <c r="E14">
-        <v>166.7157592773438</v>
+        <v>156.3742523193359</v>
       </c>
       <c r="F14">
-        <v>719040</v>
+        <v>1750944</v>
       </c>
       <c r="L14">
-        <v>29.25172064148943</v>
-      </c>
-      <c r="N14" t="s">
-        <v>195</v>
+        <v>41.05220308413833</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1295,25 +1286,22 @@
         <v>27</v>
       </c>
       <c r="B15">
-        <v>166.6962585449219</v>
+        <v>156.3632965087891</v>
       </c>
       <c r="C15">
-        <v>168.9859619140625</v>
+        <v>157.3877105712891</v>
       </c>
       <c r="D15">
-        <v>164.0791931152344</v>
+        <v>154.7163848876953</v>
       </c>
       <c r="E15">
-        <v>164.9988555908203</v>
+        <v>155.8795318603516</v>
       </c>
       <c r="F15">
-        <v>2363920</v>
+        <v>2333520</v>
       </c>
       <c r="L15">
-        <v>26.09513848063378</v>
-      </c>
-      <c r="N15" t="s">
-        <v>195</v>
+        <v>39.2641377694061</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1321,28 +1309,25 @@
         <v>28</v>
       </c>
       <c r="B16">
-        <v>165.0181427001953</v>
+        <v>155.9088745117188</v>
       </c>
       <c r="C16">
-        <v>166.0041198730469</v>
+        <v>158.6244354248047</v>
       </c>
       <c r="D16">
-        <v>164.0709991455078</v>
+        <v>155.4078979492188</v>
       </c>
       <c r="E16">
-        <v>164.0709991455078</v>
+        <v>157.9456787109375</v>
       </c>
       <c r="F16">
-        <v>657840</v>
+        <v>383568</v>
       </c>
       <c r="L16">
-        <v>24.48851014320496</v>
+        <v>49.58193366668534</v>
       </c>
       <c r="M16">
-        <v>26.58281662884488</v>
-      </c>
-      <c r="N16" t="s">
-        <v>195</v>
+        <v>50.87746100883509</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1350,28 +1335,25 @@
         <v>29</v>
       </c>
       <c r="B17">
-        <v>164.0684051513672</v>
+        <v>157.9342498779297</v>
       </c>
       <c r="C17">
-        <v>164.0684051513672</v>
+        <v>157.9342498779297</v>
       </c>
       <c r="D17">
-        <v>162.7972717285156</v>
+        <v>150.9449615478516</v>
       </c>
       <c r="E17">
-        <v>163.4043426513672</v>
+        <v>153.2625274658203</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>2315392</v>
       </c>
       <c r="L17">
-        <v>23.32759715187991</v>
+        <v>34.59567894447729</v>
       </c>
       <c r="M17">
-        <v>25.61575353133601</v>
-      </c>
-      <c r="N17" t="s">
-        <v>195</v>
+        <v>38.44508543149693</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1379,25 +1361,25 @@
         <v>30</v>
       </c>
       <c r="B18">
-        <v>163.386474609375</v>
+        <v>153.2612762451172</v>
       </c>
       <c r="C18">
-        <v>165.7556457519531</v>
+        <v>156.0546417236328</v>
       </c>
       <c r="D18">
-        <v>162.9225158691406</v>
+        <v>152.5821075439453</v>
       </c>
       <c r="E18">
-        <v>165.6815795898438</v>
+        <v>153.4779357910156</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>35.14309799586886</v>
+        <v>35.60287256880846</v>
       </c>
       <c r="M18">
-        <v>34.39543331012689</v>
+        <v>39.18125042519021</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1405,25 +1387,25 @@
         <v>31</v>
       </c>
       <c r="B19">
-        <v>165.6934204101562</v>
+        <v>153.4777374267578</v>
       </c>
       <c r="C19">
-        <v>166.1882476806641</v>
+        <v>153.6401214599609</v>
       </c>
       <c r="D19">
-        <v>164.7061462402344</v>
+        <v>150.8923645019531</v>
       </c>
       <c r="E19">
-        <v>164.8721466064453</v>
+        <v>152.9903717041016</v>
       </c>
       <c r="F19">
-        <v>1402384</v>
+        <v>89144</v>
       </c>
       <c r="L19">
-        <v>33.10320093642253</v>
+        <v>34.25946184700254</v>
       </c>
       <c r="M19">
-        <v>32.90859281342015</v>
+        <v>38.07139818295344</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1431,25 +1413,25 @@
         <v>32</v>
       </c>
       <c r="B20">
-        <v>164.8804321289062</v>
+        <v>153.0355682373047</v>
       </c>
       <c r="C20">
-        <v>166.7491912841797</v>
+        <v>154.1794586181641</v>
       </c>
       <c r="D20">
-        <v>164.8804321289062</v>
+        <v>152.6733856201172</v>
       </c>
       <c r="E20">
-        <v>165.7873687744141</v>
+        <v>153.4774780273438</v>
       </c>
       <c r="F20">
-        <v>659336</v>
+        <v>1625792</v>
       </c>
       <c r="L20">
-        <v>37.70294710269922</v>
+        <v>36.93408767374548</v>
       </c>
       <c r="M20">
-        <v>36.26351184702949</v>
+        <v>39.90294000602699</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1457,28 +1439,28 @@
         <v>33</v>
       </c>
       <c r="B21">
-        <v>165.7620239257812</v>
+        <v>153.4669799804688</v>
       </c>
       <c r="C21">
-        <v>166.5992584228516</v>
+        <v>154.0738525390625</v>
       </c>
       <c r="D21">
-        <v>163.9522094726562</v>
+        <v>152.1109771728516</v>
       </c>
       <c r="E21">
-        <v>164.2273712158203</v>
+        <v>152.7113800048828</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>170.3731475830078</v>
+        <v>157.0182182312012</v>
       </c>
       <c r="L21">
-        <v>33.31091951131762</v>
+        <v>34.45391747589425</v>
       </c>
       <c r="M21">
-        <v>33.21471977403306</v>
+        <v>37.99946029932423</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1486,31 +1468,31 @@
         <v>34</v>
       </c>
       <c r="B22">
-        <v>164.2347259521484</v>
+        <v>152.7250366210938</v>
       </c>
       <c r="C22">
-        <v>166.3477630615234</v>
+        <v>154.5180358886719</v>
       </c>
       <c r="D22">
-        <v>164.1423492431641</v>
+        <v>152.7066345214844</v>
       </c>
       <c r="E22">
-        <v>166.0410003662109</v>
+        <v>154.1248931884766</v>
       </c>
       <c r="F22">
-        <v>990592</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>170.1668548583984</v>
+        <v>156.8804408482143</v>
       </c>
       <c r="H22">
-        <v>169.9003395080566</v>
+        <v>156.9148582458496</v>
       </c>
       <c r="L22">
-        <v>42.12818566598086</v>
+        <v>42.4725008328019</v>
       </c>
       <c r="M22">
-        <v>39.57510080217708</v>
+        <v>43.36742747153878</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1518,31 +1500,31 @@
         <v>35</v>
       </c>
       <c r="B23">
-        <v>166.0222930908203</v>
+        <v>154.1637878417969</v>
       </c>
       <c r="C23">
-        <v>166.3866271972656</v>
+        <v>155.1664428710938</v>
       </c>
       <c r="D23">
-        <v>165.3782958984375</v>
+        <v>152.8696441650391</v>
       </c>
       <c r="E23">
-        <v>165.7914123535156</v>
+        <v>153.0394134521484</v>
       </c>
       <c r="F23">
-        <v>785872</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>169.7690873579546</v>
+        <v>156.531256539481</v>
       </c>
       <c r="H23">
-        <v>169.2379631042481</v>
+        <v>156.8389762878418</v>
       </c>
       <c r="L23">
-        <v>41.28314091023488</v>
+        <v>38.41273894571063</v>
       </c>
       <c r="M23">
-        <v>39.02429642659752</v>
+        <v>40.46974128952758</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1550,31 +1532,31 @@
         <v>36</v>
       </c>
       <c r="B24">
-        <v>165.7855529785156</v>
+        <v>153.0543670654297</v>
       </c>
       <c r="C24">
-        <v>167.6069641113281</v>
+        <v>154.2686462402344</v>
       </c>
       <c r="D24">
-        <v>165.4617919921875</v>
+        <v>152.5750885009766</v>
       </c>
       <c r="E24">
-        <v>165.6685791015625</v>
+        <v>153.0547790527344</v>
       </c>
       <c r="F24">
-        <v>2030608</v>
+        <v>533784</v>
       </c>
       <c r="G24">
-        <v>169.3963138801007</v>
+        <v>156.2152131315949</v>
       </c>
       <c r="H24">
-        <v>168.7565689086914</v>
+        <v>156.7640167236328</v>
       </c>
       <c r="L24">
-        <v>40.82969257250169</v>
+        <v>38.50634487912605</v>
       </c>
       <c r="M24">
-        <v>38.7385403237412</v>
+        <v>40.53031662361509</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1582,31 +1564,34 @@
         <v>37</v>
       </c>
       <c r="B25">
-        <v>165.6798248291016</v>
+        <v>153.0323028564453</v>
       </c>
       <c r="C25">
-        <v>166.9890289306641</v>
+        <v>153.0323028564453</v>
       </c>
       <c r="D25">
-        <v>165.6798248291016</v>
+        <v>150.2857208251953</v>
       </c>
       <c r="E25">
-        <v>166.6904449462891</v>
+        <v>150.3959350585938</v>
       </c>
       <c r="F25">
-        <v>17392</v>
+        <v>287936</v>
       </c>
       <c r="G25">
-        <v>169.1503257952087</v>
+        <v>155.6861878522312</v>
       </c>
       <c r="H25">
-        <v>168.296004486084</v>
+        <v>156.6205047607422</v>
       </c>
       <c r="L25">
-        <v>46.34529955640249</v>
+        <v>29.71455097991512</v>
       </c>
       <c r="M25">
-        <v>42.51004799603233</v>
+        <v>34.06994525889571</v>
+      </c>
+      <c r="N25" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -1614,31 +1599,34 @@
         <v>38</v>
       </c>
       <c r="B26">
-        <v>166.7027740478516</v>
+        <v>150.4132537841797</v>
       </c>
       <c r="C26">
-        <v>167.3730926513672</v>
+        <v>150.9015197753906</v>
       </c>
       <c r="D26">
-        <v>164.0714416503906</v>
+        <v>148.5209350585938</v>
       </c>
       <c r="E26">
-        <v>164.9921569824219</v>
+        <v>148.5228881835938</v>
       </c>
       <c r="F26">
-        <v>1989544</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>168.7723104485918</v>
+        <v>155.034978791446</v>
       </c>
       <c r="H26">
-        <v>167.8150672912598</v>
+        <v>156.179468536377</v>
       </c>
       <c r="L26">
-        <v>39.46683157242355</v>
+        <v>25.16161070199626</v>
       </c>
       <c r="M26">
-        <v>38.29089473689189</v>
+        <v>30.39447731174499</v>
+      </c>
+      <c r="N26" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -1646,31 +1634,34 @@
         <v>39</v>
       </c>
       <c r="B27">
-        <v>165.0230407714844</v>
+        <v>148.5257568359375</v>
       </c>
       <c r="C27">
-        <v>166.4672546386719</v>
+        <v>148.8789825439453</v>
       </c>
       <c r="D27">
-        <v>164.2489624023438</v>
+        <v>145.5585784912109</v>
       </c>
       <c r="E27">
-        <v>164.317138671875</v>
+        <v>146.1325988769531</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>5442640</v>
       </c>
       <c r="G27">
-        <v>168.3672948325266</v>
+        <v>154.2256715264921</v>
       </c>
       <c r="H27">
-        <v>167.1683235168457</v>
+        <v>155.367308807373</v>
       </c>
       <c r="L27">
-        <v>37.01060218896177</v>
+        <v>20.62466116405948</v>
       </c>
       <c r="M27">
-        <v>36.73044838816885</v>
+        <v>26.47000135085007</v>
+      </c>
+      <c r="N27" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -1678,31 +1669,34 @@
         <v>40</v>
       </c>
       <c r="B28">
-        <v>164.3131561279297</v>
+        <v>146.125732421875</v>
       </c>
       <c r="C28">
-        <v>164.71728515625</v>
+        <v>147.2146606445312</v>
       </c>
       <c r="D28">
-        <v>163.5645751953125</v>
+        <v>144.0312957763672</v>
       </c>
       <c r="E28">
-        <v>164.3168792724609</v>
+        <v>145.6228332519531</v>
       </c>
       <c r="F28">
-        <v>715888</v>
+        <v>6111736</v>
       </c>
       <c r="G28">
-        <v>167.999075236157</v>
+        <v>153.4435953197158</v>
       </c>
       <c r="H28">
-        <v>166.6224411010742</v>
+        <v>154.4617034912109</v>
       </c>
       <c r="L28">
-        <v>37.00960642343654</v>
+        <v>19.76941350192098</v>
       </c>
       <c r="M28">
-        <v>36.7298289323271</v>
+        <v>25.70765177409994</v>
+      </c>
+      <c r="N28" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1710,31 +1704,31 @@
         <v>41</v>
       </c>
       <c r="B29">
-        <v>164.312744140625</v>
+        <v>145.6209716796875</v>
       </c>
       <c r="C29">
-        <v>165.6929016113281</v>
+        <v>149.0659790039062</v>
       </c>
       <c r="D29">
-        <v>164.2056274414062</v>
+        <v>145.4723510742188</v>
       </c>
       <c r="E29">
-        <v>165.6929016113281</v>
+        <v>149.0659790039062</v>
       </c>
       <c r="F29">
-        <v>390728</v>
+        <v>5727808</v>
       </c>
       <c r="G29">
-        <v>167.7894230884453</v>
+        <v>153.0456302000968</v>
       </c>
       <c r="H29">
-        <v>166.1508842468262</v>
+        <v>153.6785919189453</v>
       </c>
       <c r="L29">
-        <v>45.72418351987407</v>
+        <v>38.99258633383582</v>
       </c>
       <c r="M29">
-        <v>42.28986244654939</v>
+        <v>38.57563337495337</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1742,31 +1736,31 @@
         <v>42</v>
       </c>
       <c r="B30">
-        <v>165.6735992431641</v>
+        <v>149.1339416503906</v>
       </c>
       <c r="C30">
-        <v>166.0271911621094</v>
+        <v>153.8612518310547</v>
       </c>
       <c r="D30">
-        <v>164.7284851074219</v>
+        <v>149.1339416503906</v>
       </c>
       <c r="E30">
-        <v>166.0271911621094</v>
+        <v>152.9948425292969</v>
       </c>
       <c r="F30">
-        <v>135256</v>
+        <v>15801760</v>
       </c>
       <c r="G30">
-        <v>167.6292201860511</v>
+        <v>153.0410131391149</v>
       </c>
       <c r="H30">
-        <v>165.6628929138184</v>
+        <v>153.3064498901367</v>
       </c>
       <c r="L30">
-        <v>47.70165303059825</v>
+        <v>53.34303923218572</v>
       </c>
       <c r="M30">
-        <v>43.58686443139788</v>
+        <v>49.35512068308263</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -1774,34 +1768,34 @@
         <v>43</v>
       </c>
       <c r="B31">
-        <v>166.0689086914062</v>
+        <v>153.0147247314453</v>
       </c>
       <c r="C31">
-        <v>168.2519378662109</v>
+        <v>154.0047607421875</v>
       </c>
       <c r="D31">
-        <v>165.759521484375</v>
+        <v>152.1102447509766</v>
       </c>
       <c r="E31">
-        <v>168.1687774658203</v>
+        <v>152.4824981689453</v>
       </c>
       <c r="F31">
-        <v>1257144</v>
+        <v>7890904</v>
       </c>
       <c r="G31">
-        <v>167.6782708478483</v>
+        <v>152.9902390509177</v>
       </c>
       <c r="H31">
-        <v>165.4667335510254</v>
+        <v>152.960026550293</v>
       </c>
       <c r="I31">
-        <v>168.8389811197917</v>
+        <v>154.8600341796875</v>
       </c>
       <c r="L31">
-        <v>58.57833210747529</v>
+        <v>51.5636372211686</v>
       </c>
       <c r="M31">
-        <v>51.15978740308869</v>
+        <v>48.16799770254188</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -1809,2310 +1803,2280 @@
         <v>44</v>
       </c>
       <c r="B32">
-        <v>168.1958770751953</v>
+        <v>152.6265106201172</v>
       </c>
       <c r="C32">
-        <v>169.6063385009766</v>
+        <v>153.5143585205078</v>
       </c>
       <c r="D32">
-        <v>167.6565704345703</v>
+        <v>151.5785980224609</v>
       </c>
       <c r="E32">
-        <v>169.6063385009766</v>
+        <v>152.6172180175781</v>
       </c>
       <c r="F32">
-        <v>3073528</v>
+        <v>9608888</v>
       </c>
       <c r="G32">
-        <v>167.8535497254054</v>
+        <v>152.9563280478868</v>
       </c>
       <c r="H32">
-        <v>165.5933647155762</v>
+        <v>152.6369422912598</v>
       </c>
       <c r="I32">
-        <v>168.6426203409831</v>
+        <v>154.7408716837565</v>
       </c>
       <c r="L32">
-        <v>64.20077677935926</v>
+        <v>52.03692521362485</v>
       </c>
       <c r="M32">
-        <v>55.4800791815137</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
+        <v>48.51864281605235</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B33">
-        <v>169.6327056884766</v>
+        <v>152.6430969238281</v>
       </c>
       <c r="C33">
-        <v>170.2337646484375</v>
+        <v>153.5053100585938</v>
       </c>
       <c r="D33">
-        <v>168.2247009277344</v>
+        <v>146.8926849365234</v>
       </c>
       <c r="E33">
-        <v>169.998046875</v>
+        <v>148.1884918212891</v>
       </c>
       <c r="F33">
-        <v>7991424</v>
+        <v>13777792</v>
       </c>
       <c r="G33">
-        <v>168.0485040117322</v>
+        <v>152.5228883909234</v>
       </c>
       <c r="H33">
-        <v>165.8534645080566</v>
+        <v>152.1180763244629</v>
       </c>
       <c r="I33">
-        <v>168.3412572224935</v>
+        <v>154.528586324056</v>
       </c>
       <c r="L33">
-        <v>65.63084118378109</v>
+        <v>38.22390182146233</v>
       </c>
       <c r="M33">
-        <v>56.60645144120047</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15">
+        <v>39.14378742430775</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B34">
-        <v>169.9999542236328</v>
+        <v>148.1700286865234</v>
       </c>
       <c r="C34">
-        <v>171.9894866943359</v>
+        <v>148.3464050292969</v>
       </c>
       <c r="D34">
-        <v>169.7546997070312</v>
+        <v>145.2871856689453</v>
       </c>
       <c r="E34">
-        <v>171.1295623779297</v>
+        <v>147.3752288818359</v>
       </c>
       <c r="F34">
-        <v>14136144</v>
+        <v>5035200</v>
       </c>
       <c r="G34">
-        <v>168.328600226841</v>
+        <v>152.0549193446427</v>
       </c>
       <c r="H34">
-        <v>166.0741546630859</v>
+        <v>151.6681251525879</v>
       </c>
       <c r="I34">
-        <v>168.202360534668</v>
+        <v>154.28929494222</v>
       </c>
       <c r="L34">
-        <v>69.57989359180584</v>
+        <v>36.23675006800278</v>
       </c>
       <c r="M34">
-        <v>59.77260388040557</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15">
+        <v>37.7030998013489</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B35">
-        <v>171.0981903076172</v>
+        <v>147.3743133544922</v>
       </c>
       <c r="C35">
-        <v>174.1915130615234</v>
+        <v>148.4070281982422</v>
       </c>
       <c r="D35">
-        <v>171.0981903076172</v>
+        <v>146.0156860351562</v>
       </c>
       <c r="E35">
-        <v>172.6733856201172</v>
+        <v>148.0376434326172</v>
       </c>
       <c r="F35">
-        <v>13896496</v>
+        <v>1958360</v>
       </c>
       <c r="G35">
-        <v>168.7235807171389</v>
+        <v>151.6897124435495</v>
       </c>
       <c r="H35">
-        <v>166.4578811645508</v>
+        <v>151.2760307312012</v>
       </c>
       <c r="I35">
-        <v>168.0947489420573</v>
+        <v>154.1150105794271</v>
       </c>
       <c r="L35">
-        <v>74.14059920864435</v>
+        <v>39.13614182958165</v>
       </c>
       <c r="M35">
-        <v>63.66772524279705</v>
-      </c>
-      <c r="O35" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15">
+        <v>39.65140813031952</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B36">
-        <v>172.6285858154297</v>
+        <v>148.0752410888672</v>
       </c>
       <c r="C36">
-        <v>173.4815063476562</v>
+        <v>148.6297302246094</v>
       </c>
       <c r="D36">
-        <v>169.275390625</v>
+        <v>146.7665863037109</v>
       </c>
       <c r="E36">
-        <v>170.5893402099609</v>
+        <v>147.1267547607422</v>
       </c>
       <c r="F36">
-        <v>12165096</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>168.8931952164863</v>
+        <v>151.2748981087488</v>
       </c>
       <c r="H36">
-        <v>166.7837982177734</v>
+        <v>150.7350845336914</v>
       </c>
       <c r="I36">
-        <v>167.9606969197591</v>
+        <v>153.7744486490886</v>
       </c>
       <c r="L36">
-        <v>60.39059721077503</v>
+        <v>36.56409293593065</v>
       </c>
       <c r="M36">
-        <v>55.81145042378802</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15">
+        <v>37.89628338298339</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B37">
-        <v>170.6567077636719</v>
+        <v>147.2638397216797</v>
       </c>
       <c r="C37">
-        <v>171.1467742919922</v>
+        <v>148.1815338134766</v>
       </c>
       <c r="D37">
-        <v>168.7718505859375</v>
+        <v>145.2982177734375</v>
       </c>
       <c r="E37">
-        <v>169.1995239257812</v>
+        <v>145.6574401855469</v>
       </c>
       <c r="F37">
-        <v>9981432</v>
+        <v>778312</v>
       </c>
       <c r="G37">
-        <v>168.9210432809677</v>
+        <v>150.7642201157304</v>
       </c>
       <c r="H37">
-        <v>167.0735572814941</v>
+        <v>150.3548301696777</v>
       </c>
       <c r="I37">
-        <v>167.6922805786133</v>
+        <v>153.2171702067057</v>
       </c>
       <c r="L37">
-        <v>53.01423984920913</v>
+        <v>32.66802838948782</v>
       </c>
       <c r="M37">
-        <v>51.26806902644065</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15">
+        <v>35.1904076852686</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B38">
-        <v>169.1681976318359</v>
+        <v>145.5963439941406</v>
       </c>
       <c r="C38">
-        <v>169.4546966552734</v>
+        <v>147.89794921875</v>
       </c>
       <c r="D38">
-        <v>167.5336761474609</v>
+        <v>145.2661743164062</v>
       </c>
       <c r="E38">
-        <v>167.7891387939453</v>
+        <v>145.5638885498047</v>
       </c>
       <c r="F38">
-        <v>136440</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>168.8181428730566</v>
+        <v>150.2914627006463</v>
       </c>
       <c r="H38">
-        <v>167.1789352416992</v>
+        <v>149.9591278076172</v>
       </c>
       <c r="I38">
-        <v>167.4441009521484</v>
+        <v>152.6114685058594</v>
       </c>
       <c r="L38">
-        <v>46.52633705393081</v>
+        <v>32.42058191752097</v>
       </c>
       <c r="M38">
-        <v>47.07961460399514</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15">
+        <v>35.01895838022477</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B39">
-        <v>167.78076171875</v>
+        <v>145.6177520751953</v>
       </c>
       <c r="C39">
-        <v>167.78076171875</v>
+        <v>145.9651641845703</v>
       </c>
       <c r="D39">
-        <v>166.3509979248047</v>
+        <v>142.914794921875</v>
       </c>
       <c r="E39">
-        <v>166.6517791748047</v>
+        <v>144.3143920898438</v>
       </c>
       <c r="F39">
-        <v>303248</v>
+        <v>1140384</v>
       </c>
       <c r="G39">
-        <v>168.62120071867</v>
+        <v>149.7480926451187</v>
       </c>
       <c r="H39">
-        <v>167.2679168701172</v>
+        <v>149.5253288269043</v>
       </c>
       <c r="I39">
-        <v>167.1616923014323</v>
+        <v>151.9310078938802</v>
       </c>
       <c r="L39">
-        <v>41.87691392639498</v>
+        <v>29.10772436385577</v>
       </c>
       <c r="M39">
-        <v>43.96061472660745</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15">
+        <v>32.72562245415183</v>
+      </c>
+      <c r="N39" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B40">
-        <v>166.667724609375</v>
+        <v>144.3162384033203</v>
       </c>
       <c r="C40">
-        <v>169.3376312255859</v>
+        <v>147.0195617675781</v>
       </c>
       <c r="D40">
-        <v>166.5334625244141</v>
+        <v>143.7843322753906</v>
       </c>
       <c r="E40">
-        <v>168.9510040283203</v>
+        <v>146.7653350830078</v>
       </c>
       <c r="F40">
-        <v>668544</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>168.6511828377291</v>
+        <v>149.476932866745</v>
       </c>
       <c r="H40">
-        <v>167.4260986328125</v>
+        <v>149.1897216796875</v>
       </c>
       <c r="I40">
-        <v>166.9338251749674</v>
+        <v>151.4752629597982</v>
       </c>
       <c r="L40">
-        <v>52.64022722426522</v>
+        <v>42.15202550167663</v>
       </c>
       <c r="M40">
-        <v>51.02430133066717</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15">
+        <v>40.90132459635626</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B41">
-        <v>168.8158874511719</v>
+        <v>146.7480163574219</v>
       </c>
       <c r="C41">
-        <v>169.5420532226562</v>
+        <v>147.8892059326172</v>
       </c>
       <c r="D41">
-        <v>164.8447723388672</v>
+        <v>146.3584899902344</v>
       </c>
       <c r="E41">
-        <v>165.2040100097656</v>
+        <v>147.4344329833984</v>
       </c>
       <c r="F41">
-        <v>1400064</v>
+        <v>1744144</v>
       </c>
       <c r="G41">
-        <v>168.3378034897324</v>
+        <v>149.291251059168</v>
       </c>
       <c r="H41">
-        <v>167.4749305725098</v>
+        <v>148.9258743286133</v>
       </c>
       <c r="I41">
-        <v>166.7042266845703</v>
+        <v>151.0760452270508</v>
       </c>
       <c r="L41">
-        <v>39.29814886540438</v>
+        <v>45.24620230098787</v>
       </c>
       <c r="M41">
-        <v>41.78141796736706</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15">
+        <v>42.94000089353052</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B42">
-        <v>165.2008666992188</v>
+        <v>147.4365386962891</v>
       </c>
       <c r="C42">
-        <v>165.2008666992188</v>
+        <v>149.5657348632812</v>
       </c>
       <c r="D42">
-        <v>156.1078186035156</v>
+        <v>146.4335327148438</v>
       </c>
       <c r="E42">
-        <v>158.2826385498047</v>
+        <v>149.0939636230469</v>
       </c>
       <c r="F42">
-        <v>31924824</v>
+        <v>1166992</v>
       </c>
       <c r="G42">
-        <v>167.4236975861026</v>
+        <v>149.2733158377025</v>
       </c>
       <c r="H42">
-        <v>167.0870124816894</v>
+        <v>148.6743278503418</v>
       </c>
       <c r="I42">
-        <v>166.4111907958984</v>
+        <v>150.7432139078776</v>
       </c>
       <c r="L42">
-        <v>25.74049981493626</v>
+        <v>52.35679878087004</v>
       </c>
       <c r="M42">
-        <v>30.71373181782707</v>
-      </c>
-      <c r="N42" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15">
+        <v>47.75397826751414</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B43">
-        <v>158.3515777587891</v>
+        <v>149.0939636230469</v>
       </c>
       <c r="C43">
-        <v>158.8842315673828</v>
+        <v>150.8124847412109</v>
       </c>
       <c r="D43">
-        <v>154.3982543945312</v>
+        <v>146.7957611083984</v>
       </c>
       <c r="E43">
-        <v>156.1920928955078</v>
+        <v>150.2103424072266</v>
       </c>
       <c r="F43">
-        <v>3307136</v>
+        <v>9277448</v>
       </c>
       <c r="G43">
-        <v>166.4026426142304</v>
+        <v>149.3585000712956</v>
       </c>
       <c r="H43">
-        <v>166.6070465087891</v>
+        <v>148.5328742980957</v>
       </c>
       <c r="I43">
-        <v>166.124392191569</v>
+        <v>150.4646982828776</v>
       </c>
       <c r="L43">
-        <v>23.03960681946245</v>
+        <v>56.62021741773778</v>
       </c>
       <c r="M43">
-        <v>28.27725083246459</v>
-      </c>
-      <c r="N43" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15">
+        <v>50.76332339677442</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B44">
-        <v>156.2508544921875</v>
+        <v>150.1920776367188</v>
       </c>
       <c r="C44">
-        <v>157.3699951171875</v>
+        <v>150.2087554931641</v>
       </c>
       <c r="D44">
-        <v>154.4481353759766</v>
+        <v>147.8129425048828</v>
       </c>
       <c r="E44">
-        <v>154.5570526123047</v>
+        <v>149.0009918212891</v>
       </c>
       <c r="F44">
-        <v>2538176</v>
+        <v>2781584</v>
       </c>
       <c r="G44">
-        <v>165.3257707958735</v>
+        <v>149.325999321295</v>
       </c>
       <c r="H44">
-        <v>166.0514701843262</v>
+        <v>148.3301849365234</v>
       </c>
       <c r="I44">
-        <v>165.719101969401</v>
+        <v>150.2189229329427</v>
       </c>
       <c r="L44">
-        <v>21.09229474086372</v>
+        <v>51.05261512197728</v>
       </c>
       <c r="M44">
-        <v>26.50619859774881</v>
-      </c>
-      <c r="N44" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15">
+        <v>47.56700587909935</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B45">
-        <v>154.5899963378906</v>
+        <v>148.9835205078125</v>
       </c>
       <c r="C45">
-        <v>155.8046569824219</v>
+        <v>151.4274444580078</v>
       </c>
       <c r="D45">
-        <v>154.0250549316406</v>
+        <v>146.3126983642578</v>
       </c>
       <c r="E45">
-        <v>154.5539703369141</v>
+        <v>149.1259460449219</v>
       </c>
       <c r="F45">
-        <v>2421536</v>
+        <v>3792648</v>
       </c>
       <c r="G45">
-        <v>164.3465162086954</v>
+        <v>149.3078126598065</v>
       </c>
       <c r="H45">
-        <v>165.4446464538574</v>
+        <v>148.2666854858398</v>
       </c>
       <c r="I45">
-        <v>165.3709391276042</v>
+        <v>149.9938034057617</v>
       </c>
       <c r="L45">
-        <v>21.08851465216781</v>
+        <v>51.60576339345351</v>
       </c>
       <c r="M45">
-        <v>26.50282872050369</v>
-      </c>
-      <c r="N45" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15">
+        <v>47.93180667837495</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
       <c r="A46" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B46">
-        <v>154.5504150390625</v>
+        <v>149.0684051513672</v>
       </c>
       <c r="C46">
-        <v>154.6370697021484</v>
+        <v>151.0644836425781</v>
       </c>
       <c r="D46">
-        <v>151.1730346679688</v>
+        <v>148.7738647460938</v>
       </c>
       <c r="E46">
-        <v>153.2661743164062</v>
+        <v>151.0644836425781</v>
       </c>
       <c r="F46">
-        <v>8810704</v>
+        <v>6420192</v>
       </c>
       <c r="G46">
-        <v>163.3392124003054</v>
+        <v>149.4675100218766</v>
       </c>
       <c r="H46">
-        <v>164.8583473205566</v>
+        <v>148.3937652587891</v>
       </c>
       <c r="I46">
-        <v>165.0107782999675</v>
+        <v>149.7644302368164</v>
       </c>
       <c r="L46">
-        <v>19.45008491123076</v>
+        <v>59.5783909103445</v>
       </c>
       <c r="M46">
-        <v>25.06879171424637</v>
-      </c>
-      <c r="N46" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15">
+        <v>53.35398327298641</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B47">
-        <v>153.5961761474609</v>
+        <v>151.070068359375</v>
       </c>
       <c r="C47">
-        <v>158.3579711914062</v>
+        <v>153.2919921875</v>
       </c>
       <c r="D47">
-        <v>152.565673828125</v>
+        <v>150.8047790527344</v>
       </c>
       <c r="E47">
-        <v>157.3436126708984</v>
+        <v>153.0948791503906</v>
       </c>
       <c r="F47">
-        <v>25141040</v>
+        <v>9971856</v>
       </c>
       <c r="G47">
-        <v>162.7941578794502</v>
+        <v>149.7972708517415</v>
       </c>
       <c r="H47">
-        <v>164.5096710205078</v>
+        <v>148.7418792724609</v>
       </c>
       <c r="I47">
-        <v>164.8087539672852</v>
+        <v>149.7588419596354</v>
       </c>
       <c r="L47">
-        <v>36.90978205633233</v>
+        <v>66.14941357739903</v>
       </c>
       <c r="M47">
-        <v>36.74014759345457</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15">
+        <v>58.2571266024201</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B48">
-        <v>157.3633422851562</v>
+        <v>153.1080932617188</v>
       </c>
       <c r="C48">
-        <v>162.3757934570312</v>
+        <v>154.6194458007812</v>
       </c>
       <c r="D48">
-        <v>156.6484680175781</v>
+        <v>152.4619598388672</v>
       </c>
       <c r="E48">
-        <v>162.3757934570312</v>
+        <v>153.5921478271484</v>
       </c>
       <c r="F48">
-        <v>3346640</v>
+        <v>6803008</v>
       </c>
       <c r="G48">
-        <v>162.7561247501394</v>
+        <v>150.1422596676876</v>
       </c>
       <c r="H48">
-        <v>164.4126167297363</v>
+        <v>149.1403450012207</v>
       </c>
       <c r="I48">
-        <v>164.6985610961914</v>
+        <v>149.7626490275065</v>
       </c>
       <c r="L48">
-        <v>51.50446663011347</v>
+        <v>67.6005875619087</v>
       </c>
       <c r="M48">
-        <v>47.5900500871425</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>59.38318530123205</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B49">
-        <v>162.383056640625</v>
+        <v>153.6257019042969</v>
       </c>
       <c r="C49">
-        <v>164.6397705078125</v>
+        <v>154.4772033691406</v>
       </c>
       <c r="D49">
-        <v>162.3193054199219</v>
+        <v>150.0849609375</v>
       </c>
       <c r="E49">
-        <v>163.7349395751953</v>
+        <v>150.1503601074219</v>
       </c>
       <c r="F49">
-        <v>5536240</v>
+        <v>8759232</v>
       </c>
       <c r="G49">
-        <v>162.8451079160536</v>
+        <v>150.1429960712998</v>
       </c>
       <c r="H49">
-        <v>164.3147186279297</v>
+        <v>149.1945640563965</v>
       </c>
       <c r="I49">
-        <v>164.6606541951497</v>
+        <v>149.6679819742839</v>
       </c>
       <c r="L49">
-        <v>54.68936288952752</v>
+        <v>50.68233797719608</v>
       </c>
       <c r="M49">
-        <v>50.08041628673105</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>49.4417291609186</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B50">
-        <v>163.7410125732422</v>
+        <v>150.2678070068359</v>
       </c>
       <c r="C50">
-        <v>164.7282104492188</v>
+        <v>152.8523864746094</v>
       </c>
       <c r="D50">
-        <v>161.7473602294922</v>
+        <v>148.4792785644531</v>
       </c>
       <c r="E50">
-        <v>164.7282104492188</v>
+        <v>152.8523864746094</v>
       </c>
       <c r="F50">
-        <v>7306048</v>
+        <v>5889600</v>
       </c>
       <c r="G50">
-        <v>163.0162990554322</v>
+        <v>150.3893042897825</v>
       </c>
       <c r="H50">
-        <v>164.2497695922852</v>
+        <v>149.1874412536621</v>
       </c>
       <c r="I50">
-        <v>164.6253489176432</v>
+        <v>149.6471455891927</v>
       </c>
       <c r="L50">
-        <v>57.01054677100885</v>
+        <v>59.6099847432567</v>
       </c>
       <c r="M50">
-        <v>51.87995713451635</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>55.71043779083998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B51">
-        <v>164.6835632324219</v>
+        <v>152.8446655273438</v>
       </c>
       <c r="C51">
-        <v>164.7783355712891</v>
+        <v>153.4558715820312</v>
       </c>
       <c r="D51">
-        <v>160.0000915527344</v>
+        <v>150.5606689453125</v>
       </c>
       <c r="E51">
-        <v>160.4376831054688</v>
+        <v>152.8377227783203</v>
       </c>
       <c r="F51">
-        <v>10529968</v>
+        <v>0</v>
       </c>
       <c r="G51">
-        <v>162.7818794236173</v>
+        <v>150.6118877887405</v>
       </c>
       <c r="H51">
-        <v>163.8632148742676</v>
+        <v>149.2052024841309</v>
       </c>
       <c r="I51">
-        <v>164.4990259806315</v>
+        <v>149.651357014974</v>
       </c>
       <c r="L51">
-        <v>45.6469327589863</v>
+        <v>59.54417651345867</v>
       </c>
       <c r="M51">
-        <v>44.429398387737</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>55.67009681434932</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B52">
-        <v>160.4381713867188</v>
+        <v>152.7501525878906</v>
       </c>
       <c r="C52">
-        <v>161.5646362304688</v>
+        <v>156.9976196289062</v>
       </c>
       <c r="D52">
-        <v>158.5466156005859</v>
+        <v>152.6563262939453</v>
       </c>
       <c r="E52">
-        <v>159.4109649658203</v>
+        <v>156.4748077392578</v>
       </c>
       <c r="F52">
-        <v>3878224</v>
+        <v>4747296</v>
       </c>
       <c r="G52">
-        <v>162.4754326547267</v>
+        <v>151.1448805115148</v>
       </c>
       <c r="H52">
-        <v>163.3534461975098</v>
+        <v>149.3980819702148</v>
       </c>
       <c r="I52">
-        <v>164.2780248006185</v>
+        <v>149.7296875</v>
       </c>
       <c r="L52">
-        <v>43.32224156525515</v>
+        <v>69.07169548536503</v>
       </c>
       <c r="M52">
-        <v>42.84376737384861</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>62.85477750782436</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B53">
-        <v>159.3695068359375</v>
+        <v>156.4066772460938</v>
       </c>
       <c r="C53">
-        <v>164.0384674072266</v>
+        <v>161.8675079345703</v>
       </c>
       <c r="D53">
-        <v>158.8343963623047</v>
+        <v>155.699951171875</v>
       </c>
       <c r="E53">
-        <v>159.0789031982422</v>
+        <v>159.4636077880859</v>
       </c>
       <c r="F53">
-        <v>232880</v>
+        <v>1496192</v>
       </c>
       <c r="G53">
-        <v>162.1666572495917</v>
+        <v>151.9011284457485</v>
       </c>
       <c r="H53">
-        <v>162.8074890136719</v>
+        <v>149.9618377685547</v>
       </c>
       <c r="I53">
-        <v>164.0542744954427</v>
+        <v>149.9438273111979</v>
       </c>
       <c r="L53">
-        <v>42.5340877977084</v>
+        <v>74.60142685106531</v>
       </c>
       <c r="M53">
-        <v>42.31774222057935</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>67.51420246006431</v>
+      </c>
+      <c r="O53" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B54">
-        <v>159.1148681640625</v>
+        <v>159.4520416259766</v>
       </c>
       <c r="C54">
-        <v>160.3510894775391</v>
+        <v>159.4520416259766</v>
       </c>
       <c r="D54">
-        <v>158.0355377197266</v>
+        <v>156.7209777832031</v>
       </c>
       <c r="E54">
-        <v>158.5658111572266</v>
+        <v>156.8335571289062</v>
       </c>
       <c r="F54">
         <v>0</v>
       </c>
       <c r="G54">
-        <v>161.8393076048313</v>
+        <v>152.3495310533083</v>
       </c>
       <c r="H54">
-        <v>162.1793014526367</v>
+        <v>150.4347541809082</v>
       </c>
       <c r="I54">
-        <v>163.8175155639648</v>
+        <v>150.0697865804036</v>
       </c>
       <c r="L54">
-        <v>41.23018782968462</v>
+        <v>63.38281287333518</v>
       </c>
       <c r="M54">
-        <v>41.47047777170472</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>60.34128479765639</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B55">
-        <v>158.8649444580078</v>
+        <v>156.8619995117188</v>
       </c>
       <c r="C55">
-        <v>160.9463500976562</v>
+        <v>157.2634735107422</v>
       </c>
       <c r="D55">
-        <v>156.2957611083984</v>
+        <v>152.9230346679688</v>
       </c>
       <c r="E55">
-        <v>156.3742523193359</v>
+        <v>153.2028503417969</v>
       </c>
       <c r="F55">
-        <v>1750944</v>
+        <v>0</v>
       </c>
       <c r="G55">
-        <v>161.342484397059</v>
+        <v>152.42710553408</v>
       </c>
       <c r="H55">
-        <v>161.3643447875976</v>
+        <v>150.6930145263672</v>
       </c>
       <c r="I55">
-        <v>163.4736424763997</v>
+        <v>150.1633504231771</v>
       </c>
       <c r="L55">
-        <v>35.93655332576246</v>
+        <v>51.38262727647798</v>
       </c>
       <c r="M55">
-        <v>37.97330246002813</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>52.11055820091645</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B56">
-        <v>156.3632965087891</v>
+        <v>153.17626953125</v>
       </c>
       <c r="C56">
-        <v>157.3877105712891</v>
+        <v>154.5745391845703</v>
       </c>
       <c r="D56">
-        <v>154.7163848876953</v>
+        <v>150.8289642333984</v>
       </c>
       <c r="E56">
-        <v>155.8795318603516</v>
+        <v>153.4172210693359</v>
       </c>
       <c r="F56">
-        <v>2333520</v>
+        <v>215096</v>
       </c>
       <c r="G56">
-        <v>160.8458523482674</v>
+        <v>152.517116037285</v>
       </c>
       <c r="H56">
-        <v>160.6288543701172</v>
+        <v>151.0075378417969</v>
       </c>
       <c r="I56">
-        <v>163.1698883056641</v>
+        <v>150.3264948527018</v>
       </c>
       <c r="L56">
-        <v>34.80180470620194</v>
+        <v>51.9864467683587</v>
       </c>
       <c r="M56">
-        <v>37.21046005989178</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>52.52234448412828</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B57">
-        <v>155.9088745117188</v>
+        <v>153.4483642578125</v>
       </c>
       <c r="C57">
-        <v>158.6244354248047</v>
+        <v>154.4166412353516</v>
       </c>
       <c r="D57">
-        <v>155.4078979492188</v>
+        <v>149.5617980957031</v>
       </c>
       <c r="E57">
-        <v>157.9456787109375</v>
+        <v>151.7723693847656</v>
       </c>
       <c r="F57">
-        <v>383568</v>
+        <v>3486376</v>
       </c>
       <c r="G57">
-        <v>160.5822001994192</v>
+        <v>152.4494117961469</v>
       </c>
       <c r="H57">
-        <v>160.066162109375</v>
+        <v>151.3132843017578</v>
       </c>
       <c r="I57">
-        <v>162.9575063069661</v>
+        <v>150.5144872029622</v>
       </c>
       <c r="L57">
-        <v>43.22495526974519</v>
+        <v>46.95271429518738</v>
       </c>
       <c r="M57">
-        <v>42.41356568037999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>49.03807707709483</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B58">
-        <v>157.9342498779297</v>
+        <v>151.8014678955078</v>
       </c>
       <c r="C58">
-        <v>157.9342498779297</v>
+        <v>152.6249694824219</v>
       </c>
       <c r="D58">
-        <v>150.9449615478516</v>
+        <v>148.6433563232422</v>
       </c>
       <c r="E58">
-        <v>153.2625274658203</v>
+        <v>150.5318908691406</v>
       </c>
       <c r="F58">
-        <v>2315392</v>
+        <v>0</v>
       </c>
       <c r="G58">
-        <v>159.9167754054557</v>
+        <v>152.2750917118736</v>
       </c>
       <c r="H58">
-        <v>159.3398315429687</v>
+        <v>151.5616844177246</v>
       </c>
       <c r="I58">
-        <v>162.5890279134115</v>
+        <v>150.6781224568685</v>
       </c>
       <c r="L58">
-        <v>32.51380139211261</v>
+        <v>43.38830395349504</v>
       </c>
       <c r="M58">
-        <v>35.27782821031508</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13">
+        <v>46.53105882350868</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B59">
-        <v>153.2612762451172</v>
+        <v>150.4962310791016</v>
       </c>
       <c r="C59">
-        <v>156.0546417236328</v>
+        <v>156.4070892333984</v>
       </c>
       <c r="D59">
-        <v>152.5821075439453</v>
+        <v>150.1024169921875</v>
       </c>
       <c r="E59">
-        <v>153.4779357910156</v>
+        <v>154.3951568603516</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>1939952</v>
       </c>
       <c r="G59">
-        <v>159.3314263495975</v>
+        <v>152.4678249071898</v>
       </c>
       <c r="H59">
-        <v>158.6811393737793</v>
+        <v>152.06572265625</v>
       </c>
       <c r="I59">
-        <v>162.1818623860677</v>
+        <v>150.85576171875</v>
       </c>
       <c r="L59">
-        <v>33.36819911062465</v>
+        <v>55.28222528490965</v>
       </c>
       <c r="M59">
-        <v>35.81275188467192</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>54.35718019279393</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B60">
-        <v>153.4777374267578</v>
+        <v>154.3951568603516</v>
       </c>
       <c r="C60">
-        <v>153.6401214599609</v>
+        <v>154.8609466552734</v>
       </c>
       <c r="D60">
-        <v>150.8923645019531</v>
+        <v>151.7792816162109</v>
       </c>
       <c r="E60">
-        <v>152.9903717041016</v>
+        <v>152.8178405761719</v>
       </c>
       <c r="F60">
-        <v>89144</v>
+        <v>0</v>
       </c>
       <c r="G60">
-        <v>158.7549668363706</v>
+        <v>152.4996445134609</v>
       </c>
       <c r="H60">
-        <v>157.8831077575684</v>
+        <v>152.3683479309082</v>
       </c>
       <c r="I60">
-        <v>161.7473017374674</v>
+        <v>150.8498616536458</v>
       </c>
       <c r="L60">
-        <v>32.32607408462193</v>
+        <v>50.4169015230183</v>
       </c>
       <c r="M60">
-        <v>35.10551006514473</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13">
+        <v>51.07045366640951</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B61">
-        <v>153.0355682373047</v>
+        <v>152.8235626220703</v>
       </c>
       <c r="C61">
-        <v>154.1794586181641</v>
+        <v>153.5105285644531</v>
       </c>
       <c r="D61">
-        <v>152.6733856201172</v>
+        <v>152.0355224609375</v>
       </c>
       <c r="E61">
-        <v>153.4774780273438</v>
+        <v>153.3884582519531</v>
       </c>
       <c r="F61">
-        <v>1625792</v>
+        <v>0</v>
       </c>
       <c r="G61">
-        <v>158.275195126459</v>
+        <v>152.5804457624147</v>
       </c>
       <c r="H61">
-        <v>157.2967811584473</v>
+        <v>152.6660491943359</v>
       </c>
       <c r="I61">
-        <v>161.2575917561849</v>
+        <v>150.8800603230794</v>
       </c>
       <c r="L61">
-        <v>34.6210063370094</v>
+        <v>52.1314716815701</v>
       </c>
       <c r="M61">
-        <v>36.45566564469537</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
+        <v>52.19655370848186</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
       <c r="A62" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B62">
-        <v>153.4669799804688</v>
+        <v>153.3884582519531</v>
       </c>
       <c r="C62">
-        <v>154.0738525390625</v>
+        <v>155.3045654296875</v>
       </c>
       <c r="D62">
-        <v>152.1109771728516</v>
+        <v>153.2198944091797</v>
       </c>
       <c r="E62">
-        <v>152.7113800048828</v>
+        <v>154.97216796875</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
       <c r="G62">
-        <v>157.7693937517703</v>
+        <v>152.7978750538997</v>
       </c>
       <c r="H62">
-        <v>157.0182182312012</v>
+        <v>152.9599594116211</v>
       </c>
       <c r="I62">
-        <v>160.6944264729818</v>
+        <v>150.9585586547852</v>
       </c>
       <c r="L62">
-        <v>32.66128269937734</v>
+        <v>56.79620071348261</v>
       </c>
       <c r="M62">
-        <v>35.21474006585466</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13">
+        <v>55.27327348957051</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
       <c r="A63" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B63">
-        <v>152.7250366210938</v>
+        <v>154.9109039306641</v>
       </c>
       <c r="C63">
-        <v>154.5180358886719</v>
+        <v>155.9373016357422</v>
       </c>
       <c r="D63">
-        <v>152.7066345214844</v>
+        <v>154.8096771240234</v>
       </c>
       <c r="E63">
-        <v>154.1248931884766</v>
+        <v>155.5379333496094</v>
       </c>
       <c r="F63">
         <v>0</v>
       </c>
       <c r="G63">
-        <v>157.4380755187436</v>
+        <v>153.0469712626006</v>
       </c>
       <c r="H63">
-        <v>156.9148582458496</v>
+        <v>153.2263389587402</v>
       </c>
       <c r="I63">
-        <v>160.1653213500977</v>
+        <v>151.2035400390625</v>
       </c>
       <c r="L63">
-        <v>39.74142585891257</v>
+        <v>58.42447439965582</v>
       </c>
       <c r="M63">
-        <v>39.31898920851727</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13">
+        <v>56.35400692408283</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
       <c r="A64" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B64">
-        <v>154.1637878417969</v>
+        <v>155.5615844726562</v>
       </c>
       <c r="C64">
-        <v>155.1664428710938</v>
+        <v>157.0087585449219</v>
       </c>
       <c r="D64">
-        <v>152.8696441650391</v>
+        <v>155.0763244628906</v>
       </c>
       <c r="E64">
-        <v>153.0394134521484</v>
+        <v>156.0198211669922</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>582704</v>
       </c>
       <c r="G64">
-        <v>157.0381971490531</v>
+        <v>153.317230344818</v>
       </c>
       <c r="H64">
-        <v>156.8389762878418</v>
+        <v>153.5772804260254</v>
       </c>
       <c r="I64">
-        <v>159.5623163859049</v>
+        <v>151.4916931152344</v>
       </c>
       <c r="L64">
-        <v>36.43212618409706</v>
+        <v>59.87357338013018</v>
       </c>
       <c r="M64">
-        <v>37.36154720318849</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14">
+        <v>57.30039570821396</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B65">
-        <v>153.0543670654297</v>
+        <v>156.0198211669922</v>
       </c>
       <c r="C65">
-        <v>154.2686462402344</v>
+        <v>159.6918792724609</v>
       </c>
       <c r="D65">
-        <v>152.5750885009766</v>
+        <v>154.7278442382812</v>
       </c>
       <c r="E65">
-        <v>153.0547790527344</v>
+        <v>159.1645355224609</v>
       </c>
       <c r="F65">
-        <v>533784</v>
+        <v>0</v>
       </c>
       <c r="G65">
-        <v>156.6760682312059</v>
+        <v>153.8488035427855</v>
       </c>
       <c r="H65">
-        <v>156.7640167236328</v>
+        <v>154.0792098999023</v>
       </c>
       <c r="I65">
-        <v>158.9083628336589</v>
+        <v>151.8625895182292</v>
       </c>
       <c r="L65">
-        <v>36.51631126764993</v>
+        <v>68.04933144211452</v>
       </c>
       <c r="M65">
-        <v>37.40904906278409</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14">
+        <v>62.94678752580189</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B66">
-        <v>153.0323028564453</v>
+        <v>159.1575927734375</v>
       </c>
       <c r="C66">
-        <v>153.0323028564453</v>
+        <v>159.6116943359375</v>
       </c>
       <c r="D66">
-        <v>150.2857208251953</v>
+        <v>157.8414916992188</v>
       </c>
       <c r="E66">
-        <v>150.3959350585938</v>
+        <v>157.8414916992188</v>
       </c>
       <c r="F66">
-        <v>287936</v>
+        <v>0</v>
       </c>
       <c r="G66">
-        <v>156.1051470336957</v>
+        <v>154.2117751933703</v>
       </c>
       <c r="H66">
-        <v>156.6205047607422</v>
+        <v>154.4180603027344</v>
       </c>
       <c r="I66">
-        <v>158.2352493286133</v>
+        <v>152.2197474161784</v>
       </c>
       <c r="L66">
-        <v>29.03174769988058</v>
+        <v>62.06406722956359</v>
       </c>
       <c r="M66">
-        <v>32.77705943710303</v>
-      </c>
-      <c r="N66" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14">
+        <v>59.38860675737415</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B67">
-        <v>150.4132537841797</v>
+        <v>157.6986999511719</v>
       </c>
       <c r="C67">
-        <v>150.9015197753906</v>
+        <v>158.3380737304688</v>
       </c>
       <c r="D67">
-        <v>148.5209350585938</v>
+        <v>156.8476715087891</v>
       </c>
       <c r="E67">
-        <v>148.5228881835938</v>
+        <v>158.3380737304688</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>151216</v>
       </c>
       <c r="G67">
-        <v>155.4158507745956</v>
+        <v>154.5868932421974</v>
       </c>
       <c r="H67">
-        <v>156.179468536377</v>
+        <v>154.6802200317383</v>
       </c>
       <c r="I67">
-        <v>157.546028137207</v>
+        <v>152.6424352010091</v>
       </c>
       <c r="L67">
-        <v>24.97487631467702</v>
+        <v>63.42251395298971</v>
       </c>
       <c r="M67">
-        <v>29.96250589167488</v>
-      </c>
-      <c r="N67" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14">
+        <v>60.29578475437899</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B68">
-        <v>148.5257568359375</v>
+        <v>158.3401184082031</v>
       </c>
       <c r="C68">
-        <v>148.8789825439453</v>
+        <v>159.1743011474609</v>
       </c>
       <c r="D68">
-        <v>145.5585784912109</v>
+        <v>156.5428619384766</v>
       </c>
       <c r="E68">
-        <v>146.1325988769531</v>
+        <v>156.7053375244141</v>
       </c>
       <c r="F68">
-        <v>5442640</v>
+        <v>970936</v>
       </c>
       <c r="G68">
-        <v>154.5719187839008</v>
+        <v>154.7794790860353</v>
       </c>
       <c r="H68">
-        <v>155.367308807373</v>
+        <v>154.8358795166016</v>
       </c>
       <c r="I68">
-        <v>156.8241434733073</v>
+        <v>153.0138168334961</v>
       </c>
       <c r="L68">
-        <v>20.80166399806945</v>
+        <v>56.00442960507128</v>
       </c>
       <c r="M68">
-        <v>26.79980796094517</v>
-      </c>
-      <c r="N68" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14">
+        <v>55.87620262438471</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B69">
-        <v>146.125732421875</v>
+        <v>156.7239990234375</v>
       </c>
       <c r="C69">
-        <v>147.2146606445312</v>
+        <v>157.6540069580078</v>
       </c>
       <c r="D69">
-        <v>144.0312957763672</v>
+        <v>153.1590881347656</v>
       </c>
       <c r="E69">
-        <v>145.6228332519531</v>
+        <v>154.1537475585938</v>
       </c>
       <c r="F69">
-        <v>6111736</v>
+        <v>1701472</v>
       </c>
       <c r="G69">
-        <v>153.7583655537237</v>
+        <v>154.7225944017224</v>
       </c>
       <c r="H69">
-        <v>154.4617034912109</v>
+        <v>155.0360488891602</v>
       </c>
       <c r="I69">
-        <v>156.1231786092122</v>
+        <v>153.3417953491211</v>
       </c>
       <c r="L69">
-        <v>19.99986271103308</v>
+        <v>46.45225047054534</v>
       </c>
       <c r="M69">
-        <v>26.16548114943561</v>
-      </c>
-      <c r="N69" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14">
+        <v>49.74025291066958</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B70">
-        <v>145.6209716796875</v>
+        <v>154.115966796875</v>
       </c>
       <c r="C70">
-        <v>149.0659790039062</v>
+        <v>155.1563110351562</v>
       </c>
       <c r="D70">
-        <v>145.4723510742188</v>
+        <v>153.2976989746094</v>
       </c>
       <c r="E70">
-        <v>149.0659790039062</v>
+        <v>153.609619140625</v>
       </c>
       <c r="F70">
-        <v>5727808</v>
+        <v>1952672</v>
       </c>
       <c r="G70">
-        <v>153.3317849582858</v>
+        <v>154.6214148325317</v>
       </c>
       <c r="H70">
-        <v>153.6785919189453</v>
+        <v>155.0739105224609</v>
       </c>
       <c r="I70">
-        <v>155.4603444417318</v>
+        <v>153.5699381510417</v>
       </c>
       <c r="L70">
-        <v>38.1230621127411</v>
+        <v>44.62619896780867</v>
       </c>
       <c r="M70">
-        <v>37.0102609832074</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14">
+        <v>48.51670381120709</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B71">
-        <v>149.1339416503906</v>
+        <v>153.6077117919922</v>
       </c>
       <c r="C71">
-        <v>153.8612518310547</v>
+        <v>157.219970703125</v>
       </c>
       <c r="D71">
-        <v>149.1339416503906</v>
+        <v>153.6077117919922</v>
       </c>
       <c r="E71">
-        <v>152.9948425292969</v>
+        <v>156.7586059570312</v>
       </c>
       <c r="F71">
-        <v>15801760</v>
+        <v>5323312</v>
       </c>
       <c r="G71">
-        <v>153.3011538283777</v>
+        <v>154.815704934759</v>
       </c>
       <c r="H71">
-        <v>153.3064498901367</v>
+        <v>155.2699546813965</v>
       </c>
       <c r="I71">
-        <v>155.0533721923828</v>
+        <v>153.8807439168294</v>
       </c>
       <c r="L71">
-        <v>52.06345277368219</v>
+        <v>55.91026685320351</v>
       </c>
       <c r="M71">
-        <v>46.64110477706244</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14">
+        <v>55.3603604141685</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B72">
-        <v>153.0147247314453</v>
+        <v>156.7104644775391</v>
       </c>
       <c r="C72">
-        <v>154.0047607421875</v>
+        <v>157.0254669189453</v>
       </c>
       <c r="D72">
-        <v>152.1102447509766</v>
+        <v>155.3651733398438</v>
       </c>
       <c r="E72">
-        <v>152.4824981689453</v>
+        <v>156.0823516845703</v>
       </c>
       <c r="F72">
-        <v>7890904</v>
+        <v>4701224</v>
       </c>
       <c r="G72">
-        <v>153.2267305866111</v>
+        <v>154.9308546392873</v>
       </c>
       <c r="H72">
-        <v>152.960026550293</v>
+        <v>155.2503318786621</v>
       </c>
       <c r="I72">
-        <v>154.8600341796875</v>
+        <v>154.1136901855469</v>
       </c>
       <c r="L72">
-        <v>50.39772286318263</v>
+        <v>53.28681660675654</v>
       </c>
       <c r="M72">
-        <v>45.66067485723232</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14">
+        <v>53.70918102796891</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B73">
-        <v>152.6265106201172</v>
+        <v>156.0918426513672</v>
       </c>
       <c r="C73">
-        <v>153.5143585205078</v>
+        <v>156.3525390625</v>
       </c>
       <c r="D73">
-        <v>151.5785980224609</v>
+        <v>154.9616241455078</v>
       </c>
       <c r="E73">
-        <v>152.6172180175781</v>
+        <v>156.2443695068359</v>
       </c>
       <c r="F73">
-        <v>9608888</v>
+        <v>8136048</v>
       </c>
       <c r="G73">
-        <v>153.1713203530626</v>
+        <v>155.0502650817917</v>
       </c>
       <c r="H73">
-        <v>152.6369422912598</v>
+        <v>155.0893699645996</v>
       </c>
       <c r="I73">
-        <v>154.7408716837565</v>
+        <v>154.3148244222005</v>
       </c>
       <c r="L73">
-        <v>50.86277791536628</v>
+        <v>53.87021866106992</v>
       </c>
       <c r="M73">
-        <v>45.98221765582494</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14">
+        <v>54.06268832034673</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B74">
-        <v>152.6430969238281</v>
+        <v>156.1341705322266</v>
       </c>
       <c r="C74">
-        <v>153.5053100585938</v>
+        <v>156.1341705322266</v>
       </c>
       <c r="D74">
-        <v>146.8926849365234</v>
+        <v>153.7384643554688</v>
       </c>
       <c r="E74">
-        <v>148.1884918212891</v>
+        <v>153.8789520263672</v>
       </c>
       <c r="F74">
-        <v>13777792</v>
+        <v>5032760</v>
       </c>
       <c r="G74">
-        <v>152.7183359410832</v>
+        <v>154.9437820767531</v>
       </c>
       <c r="H74">
-        <v>152.1180763244629</v>
+        <v>154.9416397094727</v>
       </c>
       <c r="I74">
-        <v>154.528586324056</v>
+        <v>154.4774230957031</v>
       </c>
       <c r="L74">
-        <v>37.76736481571734</v>
+        <v>44.70080846367668</v>
       </c>
       <c r="M74">
-        <v>38.01796025906678</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14">
+        <v>48.26725624931979</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B75">
-        <v>148.1700286865234</v>
+        <v>153.8789520263672</v>
       </c>
       <c r="C75">
-        <v>148.3464050292969</v>
+        <v>158.6401214599609</v>
       </c>
       <c r="D75">
-        <v>145.2871856689453</v>
+        <v>153.8789520263672</v>
       </c>
       <c r="E75">
-        <v>147.3752288818359</v>
+        <v>156.7650909423828</v>
       </c>
       <c r="F75">
-        <v>5035200</v>
+        <v>6809464</v>
       </c>
       <c r="G75">
-        <v>152.2325989356971</v>
+        <v>155.1093556099921</v>
       </c>
       <c r="H75">
-        <v>151.6681251525879</v>
+        <v>155.119751739502</v>
       </c>
       <c r="I75">
-        <v>154.28929494222</v>
+        <v>154.7320612589518</v>
       </c>
       <c r="L75">
-        <v>35.85999867219547</v>
+        <v>55.17410859325011</v>
       </c>
       <c r="M75">
-        <v>36.7588770158103</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14">
+        <v>54.65453866506031</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B76">
-        <v>147.3743133544922</v>
+        <v>156.875</v>
       </c>
       <c r="C76">
-        <v>148.4070281982422</v>
+        <v>158.9733428955078</v>
       </c>
       <c r="D76">
-        <v>146.0156860351562</v>
+        <v>156.875</v>
       </c>
       <c r="E76">
-        <v>148.0376434326172</v>
+        <v>157.9055938720703</v>
       </c>
       <c r="F76">
-        <v>1958360</v>
+        <v>3614264</v>
       </c>
       <c r="G76">
-        <v>151.851239344508</v>
+        <v>155.3635590883629</v>
       </c>
       <c r="H76">
-        <v>151.2760307312012</v>
+        <v>155.3441703796387</v>
       </c>
       <c r="I76">
-        <v>154.1150105794271</v>
+        <v>154.9600982666016</v>
       </c>
       <c r="L76">
-        <v>38.69694368135917</v>
+        <v>58.65521428505493</v>
       </c>
       <c r="M76">
-        <v>38.54418113374346</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14">
+        <v>56.91818440883939</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B77">
-        <v>148.0752410888672</v>
+        <v>157.9588317871094</v>
       </c>
       <c r="C77">
-        <v>148.6297302246094</v>
+        <v>159.5508880615234</v>
       </c>
       <c r="D77">
-        <v>146.7665863037109</v>
+        <v>156.1628875732422</v>
       </c>
       <c r="E77">
-        <v>147.1267547607422</v>
+        <v>159.5508880615234</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>2985576</v>
       </c>
       <c r="G77">
-        <v>151.4217407459839</v>
+        <v>155.7442253586502</v>
       </c>
       <c r="H77">
-        <v>150.7350845336914</v>
+        <v>155.7330963134766</v>
       </c>
       <c r="I77">
-        <v>153.7744486490886</v>
+        <v>155.1752985636393</v>
       </c>
       <c r="L77">
-        <v>36.21870660479443</v>
+        <v>63.28282875933111</v>
       </c>
       <c r="M77">
-        <v>36.99748514658971</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14">
+        <v>60.01889526052854</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B78">
-        <v>147.2638397216797</v>
+        <v>159.6466979980469</v>
       </c>
       <c r="C78">
-        <v>148.1815338134766</v>
+        <v>159.9698181152344</v>
       </c>
       <c r="D78">
-        <v>145.2982177734375</v>
+        <v>156.477783203125</v>
       </c>
       <c r="E78">
-        <v>145.6574401855469</v>
+        <v>157.0965118408203</v>
       </c>
       <c r="F78">
-        <v>778312</v>
+        <v>567920</v>
       </c>
       <c r="G78">
-        <v>150.8977134223078</v>
+        <v>155.8671604933929</v>
       </c>
       <c r="H78">
-        <v>150.3548301696777</v>
+        <v>156.0613273620606</v>
       </c>
       <c r="I78">
-        <v>153.2171702067057</v>
+        <v>155.2921106974284</v>
       </c>
       <c r="L78">
-        <v>32.4477403128274</v>
+        <v>53.27557981684762</v>
       </c>
       <c r="M78">
-        <v>34.58653951977535</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14">
+        <v>53.79847803436179</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B79">
-        <v>145.5963439941406</v>
+        <v>157.1247863769531</v>
       </c>
       <c r="C79">
-        <v>147.89794921875</v>
+        <v>157.6992034912109</v>
       </c>
       <c r="D79">
-        <v>145.2661743164062</v>
+        <v>155.2714538574219</v>
       </c>
       <c r="E79">
-        <v>145.5638885498047</v>
+        <v>156.1497039794922</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>1080840</v>
       </c>
       <c r="G79">
-        <v>150.4128202520802</v>
+        <v>155.8928462648565</v>
       </c>
       <c r="H79">
-        <v>149.9591278076172</v>
+        <v>156.1490547180176</v>
       </c>
       <c r="I79">
-        <v>152.6114685058594</v>
+        <v>155.4920888264974</v>
       </c>
       <c r="L79">
-        <v>32.20754394144942</v>
+        <v>49.8541813848117</v>
       </c>
       <c r="M79">
-        <v>34.43268601425213</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14">
+        <v>51.57773068606529</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B80">
-        <v>145.6177520751953</v>
+        <v>156.1203765869141</v>
       </c>
       <c r="C80">
-        <v>145.9651641845703</v>
+        <v>156.6727447509766</v>
       </c>
       <c r="D80">
-        <v>142.914794921875</v>
+        <v>153.917236328125</v>
       </c>
       <c r="E80">
-        <v>144.3143920898438</v>
+        <v>155.3158569335938</v>
       </c>
       <c r="F80">
-        <v>1140384</v>
+        <v>185392</v>
       </c>
       <c r="G80">
-        <v>149.8584176918769</v>
+        <v>155.8403926892871</v>
       </c>
       <c r="H80">
-        <v>149.5253288269043</v>
+        <v>156.2739555358887</v>
       </c>
       <c r="I80">
-        <v>151.9310078938802</v>
+        <v>155.5742045084635</v>
       </c>
       <c r="L80">
-        <v>28.98371358058984</v>
+        <v>46.8717936681253</v>
       </c>
       <c r="M80">
-        <v>32.36204608668115</v>
-      </c>
-      <c r="N80" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15">
+        <v>49.63451000389605</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B81">
-        <v>144.3162384033203</v>
+        <v>155.3240356445312</v>
       </c>
       <c r="C81">
-        <v>147.0195617675781</v>
+        <v>158.4948120117188</v>
       </c>
       <c r="D81">
-        <v>143.7843322753906</v>
+        <v>154.8392486572266</v>
       </c>
       <c r="E81">
-        <v>146.7653350830078</v>
+        <v>157.4184417724609</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>1698344</v>
       </c>
       <c r="G81">
-        <v>149.5772283637978</v>
+        <v>155.9838516968484</v>
       </c>
       <c r="H81">
-        <v>149.1897216796875</v>
+        <v>156.4754547119141</v>
       </c>
       <c r="I81">
-        <v>151.4752629597982</v>
+        <v>155.7268951416016</v>
       </c>
       <c r="L81">
-        <v>41.83210171606244</v>
+        <v>54.57963534745595</v>
       </c>
       <c r="M81">
-        <v>39.98582643435151</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15">
+        <v>54.30907948178932</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B82">
-        <v>146.7480163574219</v>
+        <v>157.380126953125</v>
       </c>
       <c r="C82">
-        <v>147.8892059326172</v>
+        <v>158.8615417480469</v>
       </c>
       <c r="D82">
-        <v>146.3584899902344</v>
+        <v>157.3227386474609</v>
       </c>
       <c r="E82">
-        <v>147.4344329833984</v>
+        <v>158.7913360595703</v>
       </c>
       <c r="F82">
-        <v>1744144</v>
+        <v>655152</v>
       </c>
       <c r="G82">
-        <v>149.3824287837615</v>
+        <v>156.2390775480049</v>
       </c>
       <c r="H82">
-        <v>148.9258743286133</v>
+        <v>156.6664131164551</v>
       </c>
       <c r="I82">
-        <v>151.0760452270508</v>
+        <v>155.8041127522787</v>
       </c>
       <c r="L82">
-        <v>44.89405207926238</v>
+        <v>58.95399618361743</v>
       </c>
       <c r="M82">
-        <v>41.91076430338115</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15">
+        <v>57.10837838700337</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B83">
-        <v>147.4365386962891</v>
+        <v>158.7780456542969</v>
       </c>
       <c r="C83">
-        <v>149.5657348632812</v>
+        <v>160.3190765380859</v>
       </c>
       <c r="D83">
-        <v>146.4335327148438</v>
+        <v>157.1114959716797</v>
       </c>
       <c r="E83">
-        <v>149.0939636230469</v>
+        <v>158.0397644042969</v>
       </c>
       <c r="F83">
-        <v>1166992</v>
+        <v>5447440</v>
       </c>
       <c r="G83">
-        <v>149.356204678242</v>
+        <v>156.4027763531224</v>
       </c>
       <c r="H83">
-        <v>148.6743278503418</v>
+        <v>156.7915046691895</v>
       </c>
       <c r="I83">
-        <v>150.7432139078776</v>
+        <v>155.7566513061523</v>
       </c>
       <c r="L83">
-        <v>51.95142995666129</v>
+        <v>55.6530476190788</v>
       </c>
       <c r="M83">
-        <v>46.49471423883347</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15">
+        <v>55.11757908938276</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B84">
-        <v>149.0939636230469</v>
+        <v>158.0277404785156</v>
       </c>
       <c r="C84">
-        <v>150.8124847412109</v>
+        <v>159.7537078857422</v>
       </c>
       <c r="D84">
-        <v>146.7957611083984</v>
+        <v>156.3547515869141</v>
       </c>
       <c r="E84">
-        <v>150.2103424072266</v>
+        <v>157.72509765625</v>
       </c>
       <c r="F84">
-        <v>9277448</v>
+        <v>3152112</v>
       </c>
       <c r="G84">
-        <v>149.4338535626951</v>
+        <v>156.5229873806794</v>
       </c>
       <c r="H84">
-        <v>148.5328742980957</v>
+        <v>156.8767684936523</v>
       </c>
       <c r="I84">
-        <v>150.4646982828776</v>
+        <v>155.7863693237305</v>
       </c>
       <c r="L84">
-        <v>56.19692479722949</v>
+        <v>54.22302716459025</v>
       </c>
       <c r="M84">
-        <v>49.38810937455102</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15">
+        <v>54.26465604665955</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B85">
-        <v>150.1920776367188</v>
+        <v>157.7102661132812</v>
       </c>
       <c r="C85">
-        <v>150.2087554931641</v>
+        <v>159.8418884277344</v>
       </c>
       <c r="D85">
-        <v>147.8129425048828</v>
+        <v>156.9452514648438</v>
       </c>
       <c r="E85">
-        <v>149.0009918212891</v>
+        <v>159.3790740966797</v>
       </c>
       <c r="F85">
-        <v>2781584</v>
+        <v>2235240</v>
       </c>
       <c r="G85">
-        <v>149.3945024952945</v>
+        <v>156.7826316275885</v>
       </c>
       <c r="H85">
-        <v>148.3301849365234</v>
+        <v>156.8874954223633</v>
       </c>
       <c r="I85">
-        <v>150.2189229329427</v>
+        <v>155.9922434488932</v>
       </c>
       <c r="L85">
-        <v>50.73383079301443</v>
+        <v>60.26112149890047</v>
       </c>
       <c r="M85">
-        <v>46.45728234457598</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15">
+        <v>57.94821246213756</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B86">
-        <v>148.9835205078125</v>
+        <v>159.4912872314453</v>
       </c>
       <c r="C86">
-        <v>151.4274444580078</v>
+        <v>159.9004364013672</v>
       </c>
       <c r="D86">
-        <v>146.3126983642578</v>
+        <v>155.8992614746094</v>
       </c>
       <c r="E86">
-        <v>149.1259460449219</v>
+        <v>155.9968872070312</v>
       </c>
       <c r="F86">
-        <v>3792648</v>
+        <v>4610288</v>
       </c>
       <c r="G86">
-        <v>149.3700882725334</v>
+        <v>156.7112003166287</v>
       </c>
       <c r="H86">
-        <v>148.2666854858398</v>
+        <v>156.7952651977539</v>
       </c>
       <c r="I86">
-        <v>149.9938034057617</v>
+        <v>156.0782323201497</v>
       </c>
       <c r="L86">
-        <v>51.28431664952812</v>
+        <v>46.23235107308539</v>
       </c>
       <c r="M86">
-        <v>46.80851373015896</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15">
+        <v>49.21855502869916</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B87">
-        <v>149.0684051513672</v>
+        <v>155.9722900390625</v>
       </c>
       <c r="C87">
-        <v>151.0644836425781</v>
+        <v>157.9555206298828</v>
       </c>
       <c r="D87">
-        <v>148.7738647460938</v>
+        <v>155.7222290039062</v>
       </c>
       <c r="E87">
-        <v>151.0644836425781</v>
+        <v>157.7310333251953</v>
       </c>
       <c r="F87">
-        <v>6420192</v>
+        <v>2432320</v>
       </c>
       <c r="G87">
-        <v>149.5241242152647</v>
+        <v>156.8039124083166</v>
       </c>
       <c r="H87">
-        <v>148.3937652587891</v>
+        <v>156.7649131774902</v>
       </c>
       <c r="I87">
-        <v>149.7644302368164</v>
+        <v>156.2768544514974</v>
       </c>
       <c r="L87">
-        <v>59.23432859273687</v>
+        <v>52.59770266762331</v>
       </c>
       <c r="M87">
-        <v>52.06236181225675</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15">
+        <v>53.11827572944901</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B88">
-        <v>151.070068359375</v>
+        <v>157.6421966552734</v>
       </c>
       <c r="C88">
-        <v>153.2919921875</v>
+        <v>158.7970275878906</v>
       </c>
       <c r="D88">
-        <v>150.8047790527344</v>
+        <v>157.305419921875</v>
       </c>
       <c r="E88">
-        <v>153.0948791503906</v>
+        <v>157.7724456787109</v>
       </c>
       <c r="F88">
-        <v>9971856</v>
+        <v>532216</v>
       </c>
       <c r="G88">
-        <v>149.8487383002762</v>
+        <v>156.8919608874434</v>
       </c>
       <c r="H88">
-        <v>148.7418792724609</v>
+        <v>156.8182685852051</v>
       </c>
       <c r="I88">
-        <v>149.7588419596354</v>
+        <v>156.5182062784831</v>
       </c>
       <c r="L88">
-        <v>65.8089450305765</v>
+        <v>52.74798862331647</v>
       </c>
       <c r="M88">
-        <v>56.86775120768427</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15">
+        <v>53.21068255839823</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B89">
-        <v>153.1080932617188</v>
+        <v>157.7724456787109</v>
       </c>
       <c r="C89">
-        <v>154.6194458007812</v>
+        <v>163.7743225097656</v>
       </c>
       <c r="D89">
-        <v>152.4619598388672</v>
+        <v>157.7724456787109</v>
       </c>
       <c r="E89">
-        <v>153.5921478271484</v>
+        <v>160.3647308349609</v>
       </c>
       <c r="F89">
-        <v>6803008</v>
+        <v>6576224</v>
       </c>
       <c r="G89">
-        <v>150.1890482572646</v>
+        <v>157.2076672463086</v>
       </c>
       <c r="H89">
-        <v>149.1403450012207</v>
+        <v>157.1288177490234</v>
       </c>
       <c r="I89">
-        <v>149.7626490275065</v>
+        <v>156.7171920776367</v>
       </c>
       <c r="L89">
-        <v>67.26363119635208</v>
+        <v>61.37228071141077</v>
       </c>
       <c r="M89">
-        <v>57.97875617051057</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15">
+        <v>58.69854688881671</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B90">
-        <v>153.6257019042969</v>
+        <v>160.3529205322266</v>
       </c>
       <c r="C90">
-        <v>154.4772033691406</v>
+        <v>160.4878082275391</v>
       </c>
       <c r="D90">
-        <v>150.0849609375</v>
+        <v>156.5165405273438</v>
       </c>
       <c r="E90">
-        <v>150.1503601074219</v>
+        <v>157.0921630859375</v>
       </c>
       <c r="F90">
-        <v>8759232</v>
+        <v>2112928</v>
       </c>
       <c r="G90">
-        <v>150.1855311527334</v>
+        <v>157.197166868093</v>
       </c>
       <c r="H90">
-        <v>149.1945640563965</v>
+        <v>157.3029449462891</v>
       </c>
       <c r="I90">
-        <v>149.6679819742839</v>
+        <v>156.8596694946289</v>
       </c>
       <c r="L90">
-        <v>50.52532747497241</v>
+        <v>48.73849128954421</v>
       </c>
       <c r="M90">
-        <v>48.64007057762638</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15">
+        <v>50.62583565210246</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B91">
-        <v>150.2678070068359</v>
+        <v>157.0061645507812</v>
       </c>
       <c r="C91">
-        <v>152.8523864746094</v>
+        <v>157.6534881591797</v>
       </c>
       <c r="D91">
-        <v>148.4792785644531</v>
+        <v>155.7623596191406</v>
       </c>
       <c r="E91">
-        <v>152.8523864746094</v>
+        <v>156.3319854736328</v>
       </c>
       <c r="F91">
-        <v>5889600</v>
+        <v>196224</v>
       </c>
       <c r="G91">
-        <v>150.4279725456312</v>
+        <v>157.1185140140512</v>
       </c>
       <c r="H91">
-        <v>149.1874412536621</v>
+        <v>157.2816139221191</v>
       </c>
       <c r="I91">
-        <v>149.6471455891927</v>
+        <v>156.9577870686849</v>
       </c>
       <c r="L91">
-        <v>59.43969224590291</v>
+        <v>46.25045705682617</v>
       </c>
       <c r="M91">
-        <v>54.79587873398209</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15">
+        <v>48.94205550197377</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B92">
-        <v>152.8446655273438</v>
+        <v>156.3410034179688</v>
       </c>
       <c r="C92">
-        <v>153.4558715820312</v>
+        <v>156.3410034179688</v>
       </c>
       <c r="D92">
-        <v>150.5606689453125</v>
+        <v>152.4905242919922</v>
       </c>
       <c r="E92">
-        <v>152.8377227783203</v>
+        <v>152.4905242919922</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>160352</v>
       </c>
       <c r="G92">
-        <v>150.6470407486029</v>
+        <v>156.6977876756822</v>
       </c>
       <c r="H92">
-        <v>149.2052024841309</v>
+        <v>157.1020225524902</v>
       </c>
       <c r="I92">
-        <v>149.651357014974</v>
+        <v>156.875065612793</v>
       </c>
       <c r="L92">
-        <v>59.37437724499076</v>
+        <v>35.84712433360659</v>
       </c>
       <c r="M92">
-        <v>54.75752187803043</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15">
+        <v>41.44118887100392</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B93">
-        <v>152.7501525878906</v>
+        <v>152.5378570556641</v>
       </c>
       <c r="C93">
-        <v>156.9976196289062</v>
+        <v>154.3468475341797</v>
       </c>
       <c r="D93">
-        <v>152.6563262939453</v>
+        <v>151.8144378662109</v>
       </c>
       <c r="E93">
-        <v>156.4748077392578</v>
+        <v>152.9828033447266</v>
       </c>
       <c r="F93">
-        <v>4747296</v>
+        <v>1503448</v>
       </c>
       <c r="G93">
-        <v>151.1768377477534</v>
+        <v>156.3600618274134</v>
       </c>
       <c r="H93">
-        <v>149.3980819702148</v>
+        <v>156.9389442443848</v>
       </c>
       <c r="I93">
-        <v>149.7296875</v>
+        <v>156.7898946126302</v>
       </c>
       <c r="L93">
-        <v>68.90782515381854</v>
+        <v>37.86214788491231</v>
       </c>
       <c r="M93">
-        <v>61.88430608392368</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15">
+        <v>42.65410607483614</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B94">
-        <v>156.4066772460938</v>
+        <v>153.0287322998047</v>
       </c>
       <c r="C94">
-        <v>161.8675079345703</v>
+        <v>153.416259765625</v>
       </c>
       <c r="D94">
-        <v>155.699951171875</v>
+        <v>150.80615234375</v>
       </c>
       <c r="E94">
-        <v>159.4636077880859</v>
+        <v>152.2498016357422</v>
       </c>
       <c r="F94">
-        <v>1496192</v>
+        <v>1897496</v>
       </c>
       <c r="G94">
-        <v>151.9301804786927</v>
+        <v>155.9864018099888</v>
       </c>
       <c r="H94">
-        <v>149.9618377685547</v>
+        <v>156.8574867248535</v>
       </c>
       <c r="I94">
-        <v>149.9438273111979</v>
+        <v>156.6642272949219</v>
       </c>
       <c r="L94">
-        <v>74.45059342139481</v>
+        <v>35.96960462465972</v>
       </c>
       <c r="M94">
-        <v>66.54769249645544</v>
-      </c>
-      <c r="O94" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15">
+        <v>41.28294678897402</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B95">
-        <v>159.4520416259766</v>
+        <v>152.25146484375</v>
       </c>
       <c r="C95">
-        <v>159.4520416259766</v>
+        <v>154.1143188476562</v>
       </c>
       <c r="D95">
-        <v>156.7209777832031</v>
+        <v>152.0658416748047</v>
       </c>
       <c r="E95">
-        <v>156.8335571289062</v>
+        <v>152.0785980224609</v>
       </c>
       <c r="F95">
         <v>0</v>
       </c>
       <c r="G95">
-        <v>152.3759419923485</v>
+        <v>155.6311469202135</v>
       </c>
       <c r="H95">
-        <v>150.4347541809082</v>
+        <v>156.6231620788574</v>
       </c>
       <c r="I95">
-        <v>150.0697865804036</v>
+        <v>156.4280293782552</v>
       </c>
       <c r="L95">
-        <v>63.28250032987131</v>
+        <v>35.50329996911316</v>
       </c>
       <c r="M95">
-        <v>59.6335236685112</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15">
+        <v>40.95182107627837</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B96">
-        <v>156.8619995117188</v>
+        <v>152.1062469482422</v>
       </c>
       <c r="C96">
-        <v>157.2634735107422</v>
+        <v>153.7359924316406</v>
       </c>
       <c r="D96">
-        <v>152.9230346679688</v>
+        <v>151.617919921875</v>
       </c>
       <c r="E96">
-        <v>153.2028503417969</v>
+        <v>152.9801788330078</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>2570232</v>
       </c>
       <c r="G96">
-        <v>152.451115478662</v>
+        <v>155.3901498213766</v>
       </c>
       <c r="H96">
-        <v>150.6930145263672</v>
+        <v>156.3768913269043</v>
       </c>
       <c r="I96">
-        <v>150.1633504231771</v>
+        <v>156.2659856160482</v>
       </c>
       <c r="L96">
-        <v>51.3254688506882</v>
+        <v>40.10353021835288</v>
       </c>
       <c r="M96">
-        <v>51.65486388584845</v>
+        <v>43.52095066440685</v>
       </c>
     </row>
     <row r="97" spans="1:13">
@@ -4120,34 +4084,34 @@
         <v>109</v>
       </c>
       <c r="B97">
-        <v>153.17626953125</v>
+        <v>153.0135192871094</v>
       </c>
       <c r="C97">
-        <v>154.5745391845703</v>
+        <v>155.3403167724609</v>
       </c>
       <c r="D97">
-        <v>150.8289642333984</v>
+        <v>152.1689910888672</v>
       </c>
       <c r="E97">
-        <v>153.4172210693359</v>
+        <v>152.1689910888672</v>
       </c>
       <c r="F97">
-        <v>215096</v>
+        <v>2164224</v>
       </c>
       <c r="G97">
-        <v>152.5389432596323</v>
+        <v>155.0973172093303</v>
       </c>
       <c r="H97">
-        <v>151.0075378417969</v>
+        <v>156.0077964782715</v>
       </c>
       <c r="I97">
-        <v>150.3264948527018</v>
+        <v>156.0603495279948</v>
       </c>
       <c r="L97">
-        <v>51.9287942174743</v>
+        <v>37.40318143546477</v>
       </c>
       <c r="M97">
-        <v>52.06268729188007</v>
+        <v>41.76041155570381</v>
       </c>
     </row>
     <row r="98" spans="1:13">
@@ -4155,34 +4119,34 @@
         <v>110</v>
       </c>
       <c r="B98">
-        <v>153.4483642578125</v>
+        <v>152.160888671875</v>
       </c>
       <c r="C98">
-        <v>154.4166412353516</v>
+        <v>154.8130035400391</v>
       </c>
       <c r="D98">
-        <v>149.5617980957031</v>
+        <v>150.1511840820312</v>
       </c>
       <c r="E98">
-        <v>151.7723693847656</v>
+        <v>154.8130035400391</v>
       </c>
       <c r="F98">
-        <v>3486376</v>
+        <v>446336</v>
       </c>
       <c r="G98">
-        <v>152.4692547255535</v>
+        <v>155.071470512122</v>
       </c>
       <c r="H98">
-        <v>151.3132843017578</v>
+        <v>155.8936210632324</v>
       </c>
       <c r="I98">
-        <v>150.5144872029622</v>
+        <v>155.9972717285156</v>
       </c>
       <c r="L98">
-        <v>46.90969059943266</v>
+        <v>49.79829163826749</v>
       </c>
       <c r="M98">
-        <v>48.67012546310581</v>
+        <v>49.00190374655738</v>
       </c>
     </row>
     <row r="99" spans="1:13">
@@ -4190,34 +4154,34 @@
         <v>111</v>
       </c>
       <c r="B99">
-        <v>151.8014678955078</v>
+        <v>154.8029327392578</v>
       </c>
       <c r="C99">
-        <v>152.6249694824219</v>
+        <v>158.7181243896484</v>
       </c>
       <c r="D99">
-        <v>148.6433563232422</v>
+        <v>154.3188323974609</v>
       </c>
       <c r="E99">
-        <v>150.5318908691406</v>
+        <v>158.1656341552734</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>3437040</v>
       </c>
       <c r="G99">
-        <v>152.2931307386069</v>
+        <v>155.3527581160448</v>
       </c>
       <c r="H99">
-        <v>151.5616844177246</v>
+        <v>155.9944175720215</v>
       </c>
       <c r="I99">
-        <v>150.6781224568685</v>
+        <v>156.1310012817383</v>
       </c>
       <c r="L99">
-        <v>43.35446790818605</v>
+        <v>60.855462694915</v>
       </c>
       <c r="M99">
-        <v>46.22380114359476</v>
+        <v>56.4041249981545</v>
       </c>
     </row>
     <row r="100" spans="1:13">
@@ -4225,34 +4189,34 @@
         <v>112</v>
       </c>
       <c r="B100">
-        <v>150.4962310791016</v>
+        <v>158.1668090820312</v>
       </c>
       <c r="C100">
-        <v>156.4070892333984</v>
+        <v>159.2307281494141</v>
       </c>
       <c r="D100">
-        <v>150.1024169921875</v>
+        <v>156.9849548339844</v>
       </c>
       <c r="E100">
-        <v>154.3951568603516</v>
+        <v>159.2307281494141</v>
       </c>
       <c r="F100">
-        <v>1939952</v>
+        <v>3091176</v>
       </c>
       <c r="G100">
-        <v>152.4842240224018</v>
+        <v>155.7053008463511</v>
       </c>
       <c r="H100">
-        <v>152.06572265625</v>
+        <v>156.1901611328125</v>
       </c>
       <c r="I100">
-        <v>150.85576171875</v>
+        <v>156.3183715820313</v>
       </c>
       <c r="L100">
-        <v>55.23986108006994</v>
+        <v>63.71202083072415</v>
       </c>
       <c r="M100">
-        <v>53.98151767034147</v>
+        <v>58.46661719981682</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -4260,34 +4224,34 @@
         <v>113</v>
       </c>
       <c r="B101">
-        <v>154.3951568603516</v>
+        <v>159.2243041992188</v>
       </c>
       <c r="C101">
-        <v>154.8609466552734</v>
+        <v>159.4224243164062</v>
       </c>
       <c r="D101">
-        <v>151.7792816162109</v>
+        <v>158.2792205810547</v>
       </c>
       <c r="E101">
-        <v>152.8178405761719</v>
+        <v>158.5859375</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>34632</v>
       </c>
       <c r="G101">
-        <v>152.5145528000173</v>
+        <v>155.9671769057737</v>
       </c>
       <c r="H101">
-        <v>152.3683479309082</v>
+        <v>156.2485359191895</v>
       </c>
       <c r="I101">
-        <v>150.8498616536458</v>
+        <v>156.3792826334635</v>
       </c>
       <c r="L101">
-        <v>50.38409198279199</v>
+        <v>60.69546436552223</v>
       </c>
       <c r="M101">
-        <v>50.76171712900298</v>
+        <v>56.71726336018139</v>
       </c>
     </row>
     <row r="102" spans="1:13">
@@ -4295,34 +4259,34 @@
         <v>114</v>
       </c>
       <c r="B102">
-        <v>152.8235626220703</v>
+        <v>158.4908294677734</v>
       </c>
       <c r="C102">
-        <v>153.5105285644531</v>
+        <v>158.4908294677734</v>
       </c>
       <c r="D102">
-        <v>152.0355224609375</v>
+        <v>155.8780364990234</v>
       </c>
       <c r="E102">
-        <v>153.3884582519531</v>
+        <v>156.4910125732422</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>1162776</v>
       </c>
       <c r="G102">
-        <v>152.5939987501932</v>
+        <v>156.014798330089</v>
       </c>
       <c r="H102">
-        <v>152.6660491943359</v>
+        <v>156.133519744873</v>
       </c>
       <c r="I102">
-        <v>150.8800603230794</v>
+        <v>156.3929046630859</v>
       </c>
       <c r="L102">
-        <v>52.0978115672937</v>
+        <v>51.74121899808788</v>
       </c>
       <c r="M102">
-        <v>51.87992184498378</v>
+        <v>51.34225603231956</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -4330,34 +4294,34 @@
         <v>115</v>
       </c>
       <c r="B103">
-        <v>153.3884582519531</v>
+        <v>156.5037841796875</v>
       </c>
       <c r="C103">
-        <v>155.3045654296875</v>
+        <v>157.5356292724609</v>
       </c>
       <c r="D103">
-        <v>153.2198944091797</v>
+        <v>155.9765777587891</v>
       </c>
       <c r="E103">
-        <v>154.97216796875</v>
+        <v>156.8356170654297</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>1063480</v>
       </c>
       <c r="G103">
-        <v>152.8101959518802</v>
+        <v>156.08941821512</v>
       </c>
       <c r="H103">
-        <v>152.9599594116211</v>
+        <v>156.0733123779297</v>
       </c>
       <c r="I103">
-        <v>150.9585586547852</v>
+        <v>156.4126129150391</v>
       </c>
       <c r="L103">
-        <v>56.76094548954455</v>
+        <v>53.02371613239925</v>
       </c>
       <c r="M103">
-        <v>54.93862878125019</v>
+        <v>52.14563872321424</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -4365,34 +4329,34 @@
         <v>116</v>
       </c>
       <c r="B104">
-        <v>154.9109039306641</v>
+        <v>156.8294219970703</v>
       </c>
       <c r="C104">
-        <v>155.9373016357422</v>
+        <v>157.3244323730469</v>
       </c>
       <c r="D104">
-        <v>154.8096771240234</v>
+        <v>156.1566925048828</v>
       </c>
       <c r="E104">
-        <v>155.5379333496094</v>
+        <v>156.3573303222656</v>
       </c>
       <c r="F104">
         <v>0</v>
       </c>
       <c r="G104">
-        <v>153.0581720789465</v>
+        <v>156.1137738612242</v>
       </c>
       <c r="H104">
-        <v>153.2263389587402</v>
+        <v>156.0049240112305</v>
       </c>
       <c r="I104">
-        <v>151.2035400390625</v>
+        <v>156.4952255249023</v>
       </c>
       <c r="L104">
-        <v>58.3889100119073</v>
+        <v>50.91113794390872</v>
       </c>
       <c r="M104">
-        <v>56.01427334450379</v>
+        <v>50.88974505967404</v>
       </c>
     </row>
     <row r="105" spans="1:13">
@@ -4400,34 +4364,34 @@
         <v>117</v>
       </c>
       <c r="B105">
-        <v>155.5615844726562</v>
+        <v>156.4188995361328</v>
       </c>
       <c r="C105">
-        <v>157.0087585449219</v>
+        <v>156.7723083496094</v>
       </c>
       <c r="D105">
-        <v>155.0763244628906</v>
+        <v>156.1947479248047</v>
       </c>
       <c r="E105">
-        <v>156.0198211669922</v>
+        <v>156.5297241210938</v>
       </c>
       <c r="F105">
-        <v>582704</v>
+        <v>604944</v>
       </c>
       <c r="G105">
-        <v>153.3274129051324</v>
+        <v>156.1515875212123</v>
       </c>
       <c r="H105">
-        <v>153.5772804260254</v>
+        <v>155.8624565124512</v>
       </c>
       <c r="I105">
-        <v>151.4916931152344</v>
+        <v>156.4873799641927</v>
       </c>
       <c r="L105">
-        <v>59.83784163697744</v>
+        <v>51.69159877703093</v>
       </c>
       <c r="M105">
-        <v>56.95673534249236</v>
+        <v>51.34461140239981</v>
       </c>
     </row>
     <row r="106" spans="1:13">
@@ -4435,34 +4399,34 @@
         <v>118</v>
       </c>
       <c r="B106">
-        <v>156.0198211669922</v>
+        <v>156.5728149414062</v>
       </c>
       <c r="C106">
-        <v>159.6918792724609</v>
+        <v>157.7511749267578</v>
       </c>
       <c r="D106">
-        <v>154.7278442382812</v>
+        <v>156.0546569824219</v>
       </c>
       <c r="E106">
-        <v>159.1645355224609</v>
+        <v>157.7511749267578</v>
       </c>
       <c r="F106">
         <v>0</v>
       </c>
       <c r="G106">
-        <v>153.8580604157987</v>
+        <v>156.2970045580801</v>
       </c>
       <c r="H106">
-        <v>154.0792098999023</v>
+        <v>155.9501708984375</v>
       </c>
       <c r="I106">
-        <v>151.8625895182292</v>
+        <v>156.4822326660156</v>
       </c>
       <c r="L106">
-        <v>68.01455802405745</v>
+        <v>57.12508181657142</v>
       </c>
       <c r="M106">
-        <v>62.58999514017899</v>
+        <v>54.5562370946965</v>
       </c>
     </row>
     <row r="107" spans="1:13">
@@ -4470,34 +4434,34 @@
         <v>119</v>
       </c>
       <c r="B107">
-        <v>159.1575927734375</v>
+        <v>157.7322998046875</v>
       </c>
       <c r="C107">
-        <v>159.6116943359375</v>
+        <v>163.2023773193359</v>
       </c>
       <c r="D107">
-        <v>157.8414916992188</v>
+        <v>157.6656341552734</v>
       </c>
       <c r="E107">
-        <v>157.8414916992188</v>
+        <v>161.6176300048828</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>12247016</v>
       </c>
       <c r="G107">
-        <v>154.2201905324732</v>
+        <v>156.7806977805167</v>
       </c>
       <c r="H107">
-        <v>154.4180603027344</v>
+        <v>156.1445007324219</v>
       </c>
       <c r="I107">
-        <v>152.2197474161784</v>
+        <v>156.5511240641276</v>
       </c>
       <c r="L107">
-        <v>62.03656779179274</v>
+        <v>69.3868516172397</v>
       </c>
       <c r="M107">
-        <v>59.08635505139506</v>
+        <v>62.9035705117258</v>
       </c>
     </row>
     <row r="108" spans="1:13">
@@ -4505,34 +4469,34 @@
         <v>120</v>
       </c>
       <c r="B108">
-        <v>157.6986999511719</v>
+        <v>161.6190795898438</v>
       </c>
       <c r="C108">
-        <v>158.3380737304688</v>
+        <v>162.0176239013672</v>
       </c>
       <c r="D108">
-        <v>156.8476715087891</v>
+        <v>158.1008148193359</v>
       </c>
       <c r="E108">
-        <v>158.3380737304688</v>
+        <v>159.6632385253906</v>
       </c>
       <c r="F108">
-        <v>151216</v>
+        <v>6864120</v>
       </c>
       <c r="G108">
-        <v>154.5945435504728</v>
+        <v>157.0427469391416</v>
       </c>
       <c r="H108">
-        <v>154.6802200317383</v>
+        <v>156.2390403747559</v>
       </c>
       <c r="I108">
-        <v>152.6424352010091</v>
+        <v>156.6366816202799</v>
       </c>
       <c r="L108">
-        <v>63.39507556875687</v>
+        <v>59.68093440483851</v>
       </c>
       <c r="M108">
-        <v>59.99160223602545</v>
+        <v>57.18558178789372</v>
       </c>
     </row>
     <row r="109" spans="1:13">
@@ -4540,34 +4504,34 @@
         <v>121</v>
       </c>
       <c r="B109">
-        <v>158.3401184082031</v>
+        <v>159.6189575195312</v>
       </c>
       <c r="C109">
-        <v>159.1743011474609</v>
+        <v>160.9599761962891</v>
       </c>
       <c r="D109">
-        <v>156.5428619384766</v>
+        <v>157.7230834960938</v>
       </c>
       <c r="E109">
-        <v>156.7053375244141</v>
+        <v>158.1125793457031</v>
       </c>
       <c r="F109">
-        <v>970936</v>
+        <v>3108096</v>
       </c>
       <c r="G109">
-        <v>154.7864339117402</v>
+        <v>157.1400044306472</v>
       </c>
       <c r="H109">
-        <v>154.8358795166016</v>
+        <v>156.126432800293</v>
       </c>
       <c r="I109">
-        <v>153.0138168334961</v>
+        <v>156.7021107991536</v>
       </c>
       <c r="L109">
-        <v>55.98464965734567</v>
+        <v>53.05641172116075</v>
       </c>
       <c r="M109">
-        <v>55.63305621856041</v>
+        <v>53.06405692038279</v>
       </c>
     </row>
     <row r="110" spans="1:13">
@@ -4575,34 +4539,34 @@
         <v>122</v>
       </c>
       <c r="B110">
-        <v>156.7239990234375</v>
+        <v>158.0626831054688</v>
       </c>
       <c r="C110">
-        <v>157.6540069580078</v>
+        <v>158.0895385742188</v>
       </c>
       <c r="D110">
-        <v>153.1590881347656</v>
+        <v>157.0835113525391</v>
       </c>
       <c r="E110">
-        <v>154.1537475585938</v>
+        <v>157.9603424072266</v>
       </c>
       <c r="F110">
-        <v>1701472</v>
+        <v>0</v>
       </c>
       <c r="G110">
-        <v>154.728916970545</v>
+        <v>157.2145806103362</v>
       </c>
       <c r="H110">
-        <v>155.0360488891602</v>
+        <v>156.1698417663574</v>
       </c>
       <c r="I110">
-        <v>153.3417953491211</v>
+        <v>156.7902603149414</v>
       </c>
       <c r="L110">
-        <v>46.44059704304049</v>
+        <v>52.41384064781924</v>
       </c>
       <c r="M110">
-        <v>49.57176559827714</v>
+        <v>52.66276225535576</v>
       </c>
     </row>
     <row r="111" spans="1:13">
@@ -4610,34 +4574,34 @@
         <v>123</v>
       </c>
       <c r="B111">
-        <v>154.115966796875</v>
+        <v>157.9534606933594</v>
       </c>
       <c r="C111">
-        <v>155.1563110351562</v>
+        <v>158.2406921386719</v>
       </c>
       <c r="D111">
-        <v>153.2976989746094</v>
+        <v>155.1837463378906</v>
       </c>
       <c r="E111">
-        <v>153.609619140625</v>
+        <v>157.5743865966797</v>
       </c>
       <c r="F111">
-        <v>1952672</v>
+        <v>6028368</v>
       </c>
       <c r="G111">
-        <v>154.6271626223705</v>
+        <v>157.2472902454583</v>
       </c>
       <c r="H111">
-        <v>155.0739105224609</v>
+        <v>156.2319618225098</v>
       </c>
       <c r="I111">
-        <v>153.5699381510417</v>
+        <v>156.7954584757487</v>
       </c>
       <c r="L111">
-        <v>44.61587660912732</v>
+        <v>50.66378837206273</v>
       </c>
       <c r="M111">
-        <v>48.36169989322132</v>
+        <v>51.59741039924048</v>
       </c>
     </row>
     <row r="112" spans="1:13">
@@ -4645,2355 +4609,2376 @@
         <v>124</v>
       </c>
       <c r="B112">
-        <v>153.6077117919922</v>
+        <v>157.5483245849609</v>
       </c>
       <c r="C112">
-        <v>157.219970703125</v>
+        <v>159.8736419677734</v>
       </c>
       <c r="D112">
-        <v>153.6077117919922</v>
+        <v>156.6267242431641</v>
       </c>
       <c r="E112">
-        <v>156.7586059570312</v>
+        <v>156.7639007568359</v>
       </c>
       <c r="F112">
-        <v>5323312</v>
+        <v>5395496</v>
       </c>
       <c r="G112">
-        <v>154.8209301982488</v>
+        <v>157.2033457464926</v>
       </c>
       <c r="H112">
-        <v>155.2699546813965</v>
+        <v>156.4456306457519</v>
       </c>
       <c r="I112">
-        <v>153.8807439168294</v>
+        <v>156.7278772989909</v>
       </c>
       <c r="L112">
-        <v>55.89775047319213</v>
+        <v>46.95962582758802</v>
       </c>
       <c r="M112">
-        <v>55.18033280141813</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13">
+        <v>49.34014619125431</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14">
       <c r="A113" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B113">
-        <v>156.7104644775391</v>
+        <v>156.7471618652344</v>
       </c>
       <c r="C113">
-        <v>157.0254669189453</v>
+        <v>159.7950592041016</v>
       </c>
       <c r="D113">
-        <v>155.3651733398438</v>
+        <v>155.5556945800781</v>
       </c>
       <c r="E113">
-        <v>156.0823516845703</v>
+        <v>158.6723327636719</v>
       </c>
       <c r="F113">
-        <v>4701224</v>
+        <v>5080272</v>
       </c>
       <c r="G113">
-        <v>154.9356048788235</v>
+        <v>157.3368900207816</v>
       </c>
       <c r="H113">
-        <v>155.2503318786621</v>
+        <v>156.7301071166992</v>
       </c>
       <c r="I113">
-        <v>154.1136901855469</v>
+        <v>156.7489629109701</v>
       </c>
       <c r="L113">
-        <v>53.27583940605714</v>
+        <v>55.56552428990184</v>
       </c>
       <c r="M113">
-        <v>53.54513880277398</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13">
+        <v>54.39892314782274</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14">
       <c r="A114" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B114">
-        <v>156.0918426513672</v>
+        <v>158.6427917480469</v>
       </c>
       <c r="C114">
-        <v>156.3525390625</v>
+        <v>158.6427917480469</v>
       </c>
       <c r="D114">
-        <v>154.9616241455078</v>
+        <v>155.8668212890625</v>
       </c>
       <c r="E114">
-        <v>156.2443695068359</v>
+        <v>155.9160308837891</v>
       </c>
       <c r="F114">
-        <v>8136048</v>
+        <v>827048</v>
       </c>
       <c r="G114">
-        <v>155.05458348137</v>
+        <v>157.2077210083278</v>
       </c>
       <c r="H114">
-        <v>155.0893699645996</v>
+        <v>156.9134185791016</v>
       </c>
       <c r="I114">
-        <v>154.3148244222005</v>
+        <v>156.6886606852214</v>
       </c>
       <c r="L114">
-        <v>53.85916942303807</v>
+        <v>43.97299298788851</v>
       </c>
       <c r="M114">
-        <v>53.89762790333351</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13">
+        <v>47.08574986986623</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14">
       <c r="A115" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B115">
-        <v>156.1341705322266</v>
+        <v>155.906005859375</v>
       </c>
       <c r="C115">
-        <v>156.1341705322266</v>
+        <v>155.9411163330078</v>
       </c>
       <c r="D115">
-        <v>153.7384643554688</v>
+        <v>151.6807708740234</v>
       </c>
       <c r="E115">
-        <v>153.8789520263672</v>
+        <v>153.6064147949219</v>
       </c>
       <c r="F115">
-        <v>5032760</v>
+        <v>3465312</v>
       </c>
       <c r="G115">
-        <v>154.9477078945516</v>
+        <v>156.8803295343818</v>
       </c>
       <c r="H115">
-        <v>154.9416397094727</v>
+        <v>156.9898094177246</v>
       </c>
       <c r="I115">
-        <v>154.4774230957031</v>
+        <v>156.4962387084961</v>
       </c>
       <c r="L115">
-        <v>44.69436638737476</v>
+        <v>36.74612743990087</v>
       </c>
       <c r="M115">
-        <v>48.15293303168411</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13">
+        <v>41.99155853054939</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14">
       <c r="A116" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B116">
-        <v>153.8789520263672</v>
+        <v>153.6252899169922</v>
       </c>
       <c r="C116">
-        <v>158.6401214599609</v>
+        <v>155.6645050048828</v>
       </c>
       <c r="D116">
-        <v>153.8789520263672</v>
+        <v>149.7320251464844</v>
       </c>
       <c r="E116">
-        <v>156.7650909423828</v>
+        <v>150.8899688720703</v>
       </c>
       <c r="F116">
-        <v>6809464</v>
+        <v>6875112</v>
       </c>
       <c r="G116">
-        <v>155.1129245352635</v>
+        <v>156.3357512923535</v>
       </c>
       <c r="H116">
-        <v>155.119751739502</v>
+        <v>156.8852989196777</v>
       </c>
       <c r="I116">
-        <v>154.7320612589518</v>
+        <v>156.3260080973307</v>
       </c>
       <c r="L116">
-        <v>55.16636130873712</v>
+        <v>30.18263622934574</v>
       </c>
       <c r="M116">
-        <v>54.52221828316262</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13">
+        <v>36.93075067816928</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14">
       <c r="A117" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B117">
-        <v>156.875</v>
+        <v>150.9072875976562</v>
       </c>
       <c r="C117">
-        <v>158.9733428955078</v>
+        <v>153.5875701904297</v>
       </c>
       <c r="D117">
-        <v>156.875</v>
+        <v>150.0826568603516</v>
       </c>
       <c r="E117">
-        <v>157.9055938720703</v>
+        <v>150.4733276367188</v>
       </c>
       <c r="F117">
-        <v>3614264</v>
+        <v>8139832</v>
       </c>
       <c r="G117">
-        <v>155.3668035658823</v>
+        <v>155.8028036872957</v>
       </c>
       <c r="H117">
-        <v>155.3441703796387</v>
+        <v>156.8005157470703</v>
       </c>
       <c r="I117">
-        <v>154.9600982666016</v>
+        <v>156.0840845743815</v>
       </c>
       <c r="L117">
-        <v>58.64729441177921</v>
+        <v>29.28021097275593</v>
       </c>
       <c r="M117">
-        <v>56.78164666563548</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13">
+        <v>36.20992320931952</v>
+      </c>
+      <c r="N117" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14">
       <c r="A118" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B118">
-        <v>157.9588317871094</v>
+        <v>150.6658477783203</v>
       </c>
       <c r="C118">
-        <v>159.5508880615234</v>
+        <v>154.7393646240234</v>
       </c>
       <c r="D118">
-        <v>156.1628875732422</v>
+        <v>150.6658477783203</v>
       </c>
       <c r="E118">
-        <v>159.5508880615234</v>
+        <v>153.5383911132812</v>
       </c>
       <c r="F118">
-        <v>2985576</v>
+        <v>1350544</v>
       </c>
       <c r="G118">
-        <v>155.7471748836679</v>
+        <v>155.596947998749</v>
       </c>
       <c r="H118">
-        <v>155.7330963134766</v>
+        <v>156.7367851257324</v>
       </c>
       <c r="I118">
-        <v>155.1752985636393</v>
+        <v>155.9429494222005</v>
       </c>
       <c r="L118">
-        <v>63.27488127099372</v>
+        <v>43.30842388146452</v>
       </c>
       <c r="M118">
-        <v>59.87841839720436</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13">
+        <v>44.7529912912284</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14">
       <c r="A119" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B119">
-        <v>159.6466979980469</v>
+        <v>153.51806640625</v>
       </c>
       <c r="C119">
-        <v>159.9698181152344</v>
+        <v>154.5343475341797</v>
       </c>
       <c r="D119">
-        <v>156.477783203125</v>
+        <v>152.6194763183594</v>
       </c>
       <c r="E119">
-        <v>157.0965118408203</v>
+        <v>152.9762115478516</v>
       </c>
       <c r="F119">
-        <v>567920</v>
+        <v>0</v>
       </c>
       <c r="G119">
-        <v>155.8698418797727</v>
+        <v>155.3586992304856</v>
       </c>
       <c r="H119">
-        <v>156.0613273620606</v>
+        <v>156.4773139953613</v>
       </c>
       <c r="I119">
-        <v>155.2921106974284</v>
+        <v>155.6966654459635</v>
       </c>
       <c r="L119">
-        <v>53.27055272328396</v>
+        <v>41.60548114011246</v>
       </c>
       <c r="M119">
-        <v>53.69718999332235</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13">
+        <v>43.59963403543587</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14">
       <c r="A120" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B120">
-        <v>157.1247863769531</v>
+        <v>153.0357360839844</v>
       </c>
       <c r="C120">
-        <v>157.6992034912109</v>
+        <v>153.0788269042969</v>
       </c>
       <c r="D120">
-        <v>155.2714538574219</v>
+        <v>147.3622131347656</v>
       </c>
       <c r="E120">
-        <v>156.1497039794922</v>
+        <v>148.4892272949219</v>
       </c>
       <c r="F120">
-        <v>1080840</v>
+        <v>152880</v>
       </c>
       <c r="G120">
-        <v>155.895283888838</v>
+        <v>154.734201781798</v>
       </c>
       <c r="H120">
-        <v>156.1490547180176</v>
+        <v>155.9402389526367</v>
       </c>
       <c r="I120">
-        <v>155.4920888264974</v>
+        <v>155.4099009195964</v>
       </c>
       <c r="L120">
-        <v>49.85000940717199</v>
+        <v>30.74897055838583</v>
       </c>
       <c r="M120">
-        <v>51.48905901795947</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13">
+        <v>35.69303918439773</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14">
       <c r="A121" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B121">
-        <v>156.1203765869141</v>
+        <v>148.3177947998047</v>
       </c>
       <c r="C121">
-        <v>156.6727447509766</v>
+        <v>149.2108764648438</v>
       </c>
       <c r="D121">
-        <v>153.917236328125</v>
+        <v>146.6033325195312</v>
       </c>
       <c r="E121">
-        <v>155.3158569335938</v>
+        <v>148.6847991943359</v>
       </c>
       <c r="F121">
-        <v>185392</v>
+        <v>663032</v>
       </c>
       <c r="G121">
-        <v>155.8426087110886</v>
+        <v>154.1842560920287</v>
       </c>
       <c r="H121">
-        <v>156.2739555358887</v>
+        <v>155.4451820373535</v>
       </c>
       <c r="I121">
-        <v>155.5742045084635</v>
+        <v>155.1549947102864</v>
       </c>
       <c r="L121">
-        <v>46.86830749474543</v>
+        <v>31.62385114245295</v>
       </c>
       <c r="M121">
-        <v>49.5562843301335</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13">
+        <v>36.23581445173472</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14">
       <c r="A122" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B122">
-        <v>155.3240356445312</v>
+        <v>148.6764678955078</v>
       </c>
       <c r="C122">
-        <v>158.4948120117188</v>
+        <v>150.3726501464844</v>
       </c>
       <c r="D122">
-        <v>154.8392486572266</v>
+        <v>148.54296875</v>
       </c>
       <c r="E122">
-        <v>157.4184417724609</v>
+        <v>149.5899353027344</v>
       </c>
       <c r="F122">
-        <v>1698344</v>
+        <v>0</v>
       </c>
       <c r="G122">
-        <v>155.9858662621224</v>
+        <v>153.7665905657292</v>
       </c>
       <c r="H122">
-        <v>156.4754547119141</v>
+        <v>155.1001281738281</v>
       </c>
       <c r="I122">
-        <v>155.7268951416016</v>
+        <v>155.0583084106445</v>
       </c>
       <c r="L122">
-        <v>54.57569093929661</v>
+        <v>35.84392717502799</v>
       </c>
       <c r="M122">
-        <v>54.22255221643031</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13">
+        <v>38.80997036793629</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14">
       <c r="A123" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B123">
-        <v>157.380126953125</v>
+        <v>149.5208282470703</v>
       </c>
       <c r="C123">
-        <v>158.8615417480469</v>
+        <v>150.3783721923828</v>
       </c>
       <c r="D123">
-        <v>157.3227386474609</v>
+        <v>148.3820343017578</v>
       </c>
       <c r="E123">
-        <v>158.7913360595703</v>
+        <v>150.2330932617188</v>
       </c>
       <c r="F123">
-        <v>655152</v>
+        <v>0</v>
       </c>
       <c r="G123">
-        <v>156.2409089709813</v>
+        <v>153.4453635380919</v>
       </c>
       <c r="H123">
-        <v>156.6664131164551</v>
+        <v>154.7700019836426</v>
       </c>
       <c r="I123">
-        <v>155.8041127522787</v>
+        <v>154.9666514078776</v>
       </c>
       <c r="L123">
-        <v>58.94993723317501</v>
+        <v>38.86036753648672</v>
       </c>
       <c r="M123">
-        <v>57.01839943369346</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13">
+        <v>40.64360985831967</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14">
       <c r="A124" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B124">
-        <v>158.7780456542969</v>
+        <v>150.2592468261719</v>
       </c>
       <c r="C124">
-        <v>160.3190765380859</v>
+        <v>151.2142639160156</v>
       </c>
       <c r="D124">
-        <v>157.1114959716797</v>
+        <v>148.8986663818359</v>
       </c>
       <c r="E124">
-        <v>158.0397644042969</v>
+        <v>149.0341644287109</v>
       </c>
       <c r="F124">
-        <v>5447440</v>
+        <v>0</v>
       </c>
       <c r="G124">
-        <v>156.4044412831009</v>
+        <v>153.0443454372391</v>
       </c>
       <c r="H124">
-        <v>156.7915046691895</v>
+        <v>154.4038436889649</v>
       </c>
       <c r="I124">
-        <v>155.7566513061523</v>
+        <v>154.8594635009766</v>
       </c>
       <c r="L124">
-        <v>55.64956809109587</v>
+        <v>35.37256562547873</v>
       </c>
       <c r="M124">
-        <v>55.03672449750719</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13">
+        <v>38.33731203313264</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14">
       <c r="A125" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B125">
-        <v>158.0277404785156</v>
+        <v>149.0459747314453</v>
       </c>
       <c r="C125">
-        <v>159.7537078857422</v>
+        <v>155.5308990478516</v>
       </c>
       <c r="D125">
-        <v>156.3547515869141</v>
+        <v>148.9810180664062</v>
       </c>
       <c r="E125">
-        <v>157.72509765625</v>
+        <v>155.1609039306641</v>
       </c>
       <c r="F125">
-        <v>3152112</v>
+        <v>12389080</v>
       </c>
       <c r="G125">
-        <v>156.5245009533872</v>
+        <v>153.2367598457323</v>
       </c>
       <c r="H125">
-        <v>156.8767684936523</v>
+        <v>154.3354026794433</v>
       </c>
       <c r="I125">
-        <v>155.7863693237305</v>
+        <v>154.96220703125</v>
       </c>
       <c r="L125">
-        <v>54.21978568373711</v>
+        <v>57.36922295657207</v>
       </c>
       <c r="M125">
-        <v>54.18757866539018</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13">
+        <v>53.01101886222438</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14">
       <c r="A126" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B126">
-        <v>157.7102661132812</v>
+        <v>155.1553955078125</v>
       </c>
       <c r="C126">
-        <v>159.8418884277344</v>
+        <v>155.4156036376953</v>
       </c>
       <c r="D126">
-        <v>156.9452514648438</v>
+        <v>152.6332397460938</v>
       </c>
       <c r="E126">
-        <v>159.3790740966797</v>
+        <v>153.8541717529297</v>
       </c>
       <c r="F126">
-        <v>2235240</v>
+        <v>767416</v>
       </c>
       <c r="G126">
-        <v>156.7840076027774</v>
+        <v>153.292888200932</v>
       </c>
       <c r="H126">
-        <v>156.8874954223633</v>
+        <v>154.140552520752</v>
       </c>
       <c r="I126">
-        <v>155.9922434488932</v>
+        <v>154.9913401285807</v>
       </c>
       <c r="L126">
-        <v>60.25776266718765</v>
+        <v>53.03775966929231</v>
       </c>
       <c r="M126">
-        <v>57.86727829105308</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13">
+        <v>50.26367225311709</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14">
       <c r="A127" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B127">
-        <v>159.4912872314453</v>
+        <v>153.8335723876953</v>
       </c>
       <c r="C127">
-        <v>159.9004364013672</v>
+        <v>153.9097900390625</v>
       </c>
       <c r="D127">
-        <v>155.8992614746094</v>
+        <v>151.3954010009766</v>
       </c>
       <c r="E127">
-        <v>155.9968872070312</v>
+        <v>152.7679290771484</v>
       </c>
       <c r="F127">
-        <v>4610288</v>
+        <v>118728</v>
       </c>
       <c r="G127">
-        <v>156.7124512031641</v>
+        <v>153.2451646442244</v>
       </c>
       <c r="H127">
-        <v>156.7952651977539</v>
+        <v>153.6980674743652</v>
       </c>
       <c r="I127">
-        <v>156.0782323201497</v>
+        <v>155.0113047281901</v>
       </c>
       <c r="L127">
-        <v>46.23074537372317</v>
+        <v>49.53989088380053</v>
       </c>
       <c r="M127">
-        <v>49.17001820644298</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13">
+        <v>48.03507919824996</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14">
       <c r="A128" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B128">
-        <v>155.9722900390625</v>
+        <v>152.8447265625</v>
       </c>
       <c r="C128">
-        <v>157.9555206298828</v>
+        <v>153.0266571044922</v>
       </c>
       <c r="D128">
-        <v>155.7222290039062</v>
+        <v>150.9336242675781</v>
       </c>
       <c r="E128">
-        <v>157.7310333251953</v>
+        <v>151.5712738037109</v>
       </c>
       <c r="F128">
-        <v>2432320</v>
+        <v>212712</v>
       </c>
       <c r="G128">
-        <v>156.8050495778942</v>
+        <v>153.0929927496323</v>
       </c>
       <c r="H128">
-        <v>156.7649131774902</v>
+        <v>153.2934692382813</v>
       </c>
       <c r="I128">
-        <v>156.2768544514974</v>
+        <v>154.9032470703125</v>
       </c>
       <c r="L128">
-        <v>52.59589852672426</v>
+        <v>45.79665798129972</v>
       </c>
       <c r="M128">
-        <v>53.06511230436318</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13">
+        <v>45.63460136310454</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15">
       <c r="A129" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B129">
-        <v>157.6421966552734</v>
+        <v>151.6313018798828</v>
       </c>
       <c r="C129">
-        <v>158.7970275878906</v>
+        <v>153.2997589111328</v>
       </c>
       <c r="D129">
-        <v>157.305419921875</v>
+        <v>151.5444641113281</v>
       </c>
       <c r="E129">
-        <v>157.7724456787109</v>
+        <v>152.5376281738281</v>
       </c>
       <c r="F129">
-        <v>532216</v>
+        <v>203544</v>
       </c>
       <c r="G129">
-        <v>156.8929946779684</v>
+        <v>153.0425050609228</v>
       </c>
       <c r="H129">
-        <v>156.8182685852051</v>
+        <v>153.0147216796875</v>
       </c>
       <c r="I129">
-        <v>156.5182062784831</v>
+        <v>154.715646870931</v>
       </c>
       <c r="L129">
-        <v>52.7461810580424</v>
+        <v>49.2784603050285</v>
       </c>
       <c r="M129">
-        <v>53.1574263227964</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13">
+        <v>47.89892206496012</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15">
       <c r="A130" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B130">
-        <v>157.7724456787109</v>
+        <v>152.5450897216797</v>
       </c>
       <c r="C130">
-        <v>163.7743225097656</v>
+        <v>153.7620544433594</v>
       </c>
       <c r="D130">
-        <v>157.7724456787109</v>
+        <v>151.9954681396484</v>
       </c>
       <c r="E130">
-        <v>160.3647308349609</v>
+        <v>153.2248077392578</v>
       </c>
       <c r="F130">
-        <v>6576224</v>
+        <v>1045768</v>
       </c>
       <c r="G130">
-        <v>157.2086070558768</v>
+        <v>153.0590780316805</v>
       </c>
       <c r="H130">
-        <v>157.1288177490234</v>
+        <v>152.7779449462891</v>
       </c>
       <c r="I130">
-        <v>156.7171920776367</v>
+        <v>154.5154495239258</v>
       </c>
       <c r="L130">
-        <v>61.37037407581504</v>
+        <v>51.75755817293014</v>
       </c>
       <c r="M130">
-        <v>58.64117573865691</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13">
+        <v>49.50936269049544</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15">
       <c r="A131" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B131">
-        <v>160.3529205322266</v>
+        <v>153.2218017578125</v>
       </c>
       <c r="C131">
-        <v>160.4878082275391</v>
+        <v>156.2354278564453</v>
       </c>
       <c r="D131">
-        <v>156.5165405273438</v>
+        <v>152.1600952148438</v>
       </c>
       <c r="E131">
-        <v>157.0921630859375</v>
+        <v>156.0947570800781</v>
       </c>
       <c r="F131">
-        <v>2112928</v>
+        <v>995464</v>
       </c>
       <c r="G131">
-        <v>157.1980212404278</v>
+        <v>153.3350488542621</v>
       </c>
       <c r="H131">
-        <v>157.3029449462891</v>
+        <v>152.703963470459</v>
       </c>
       <c r="I131">
-        <v>156.8596694946289</v>
+        <v>154.4324101765951</v>
       </c>
       <c r="L131">
-        <v>48.73747617016291</v>
+        <v>60.76719221117621</v>
       </c>
       <c r="M131">
-        <v>50.58947569345005</v>
-      </c>
-    </row>
-    <row r="132" spans="1:13">
+        <v>55.67197776275619</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15">
       <c r="A132" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B132">
-        <v>157.0061645507812</v>
+        <v>156.0681304931641</v>
       </c>
       <c r="C132">
-        <v>157.6534881591797</v>
+        <v>156.7682647705078</v>
       </c>
       <c r="D132">
-        <v>155.7623596191406</v>
+        <v>155.1015014648438</v>
       </c>
       <c r="E132">
-        <v>156.3319854736328</v>
+        <v>155.3321990966797</v>
       </c>
       <c r="F132">
-        <v>196224</v>
+        <v>0</v>
       </c>
       <c r="G132">
-        <v>157.1192907161737</v>
+        <v>153.5166079672092</v>
       </c>
       <c r="H132">
-        <v>157.2816139221191</v>
+        <v>152.6323783874512</v>
       </c>
       <c r="I132">
-        <v>156.9577870686849</v>
+        <v>154.3937830607096</v>
       </c>
       <c r="L132">
-        <v>46.24958701782666</v>
+        <v>57.55422535403157</v>
       </c>
       <c r="M132">
-        <v>48.90955140097466</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13">
+        <v>53.79324396236561</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15">
       <c r="A133" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B133">
-        <v>156.3410034179688</v>
+        <v>155.2930908203125</v>
       </c>
       <c r="C133">
-        <v>156.3410034179688</v>
+        <v>157.0214996337891</v>
       </c>
       <c r="D133">
-        <v>152.4905242919922</v>
+        <v>155.0264129638672</v>
       </c>
       <c r="E133">
-        <v>152.4905242919922</v>
+        <v>156.1864929199219</v>
       </c>
       <c r="F133">
-        <v>160352</v>
+        <v>3538456</v>
       </c>
       <c r="G133">
-        <v>156.6984937685208</v>
+        <v>153.7593247810921</v>
       </c>
       <c r="H133">
-        <v>157.1020225524902</v>
+        <v>152.5080863952637</v>
       </c>
       <c r="I133">
-        <v>156.875065612793</v>
+        <v>154.3721455891927</v>
       </c>
       <c r="L133">
-        <v>35.84675223796388</v>
+        <v>60.20602847368735</v>
       </c>
       <c r="M133">
-        <v>41.42365219045779</v>
-      </c>
-    </row>
-    <row r="134" spans="1:13">
+        <v>55.60092418502945</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15">
       <c r="A134" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B134">
-        <v>152.5378570556641</v>
+        <v>156.1828765869141</v>
       </c>
       <c r="C134">
-        <v>154.3468475341797</v>
+        <v>157.4441833496094</v>
       </c>
       <c r="D134">
-        <v>151.8144378662109</v>
+        <v>155.3345336914062</v>
       </c>
       <c r="E134">
-        <v>152.9828033447266</v>
+        <v>157.0088195800781</v>
       </c>
       <c r="F134">
-        <v>1503448</v>
+        <v>990144</v>
       </c>
       <c r="G134">
-        <v>156.360703729994</v>
+        <v>154.0547333991817</v>
       </c>
       <c r="H134">
-        <v>156.9389442443848</v>
+        <v>152.5627258300781</v>
       </c>
       <c r="I134">
-        <v>156.7898946126302</v>
+        <v>154.3938618977865</v>
       </c>
       <c r="L134">
-        <v>37.86173077280781</v>
+        <v>62.72766801289031</v>
       </c>
       <c r="M134">
-        <v>42.63534975969809</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13">
+        <v>57.33132637909363</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15">
       <c r="A135" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B135">
-        <v>153.0287322998047</v>
+        <v>157.0335235595703</v>
       </c>
       <c r="C135">
-        <v>153.416259765625</v>
+        <v>157.7037506103516</v>
       </c>
       <c r="D135">
-        <v>150.80615234375</v>
+        <v>155.8698272705078</v>
       </c>
       <c r="E135">
-        <v>152.2498016357422</v>
+        <v>157.4547882080078</v>
       </c>
       <c r="F135">
-        <v>1897496</v>
+        <v>1713220</v>
       </c>
       <c r="G135">
-        <v>155.9869853577893</v>
+        <v>154.3638292908932</v>
       </c>
       <c r="H135">
-        <v>156.8574867248535</v>
+        <v>152.7551445007324</v>
       </c>
       <c r="I135">
-        <v>156.6642272949219</v>
+        <v>154.4246973673503</v>
       </c>
       <c r="L135">
-        <v>35.96925895631526</v>
+        <v>64.11503300859266</v>
       </c>
       <c r="M135">
-        <v>41.26652406183714</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13">
+        <v>58.28095139053519</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15">
       <c r="A136" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B136">
-        <v>152.25146484375</v>
+        <v>157.4258117675781</v>
       </c>
       <c r="C136">
-        <v>154.1143188476562</v>
+        <v>158.8812866210938</v>
       </c>
       <c r="D136">
-        <v>152.0658416748047</v>
+        <v>156.7757720947266</v>
       </c>
       <c r="E136">
-        <v>152.0785980224609</v>
+        <v>158.4746398925781</v>
       </c>
       <c r="F136">
-        <v>0</v>
+        <v>448432</v>
       </c>
       <c r="G136">
-        <v>155.631677418214</v>
+        <v>154.7375393455918</v>
       </c>
       <c r="H136">
-        <v>156.6231620788574</v>
+        <v>153.1343780517578</v>
       </c>
       <c r="I136">
-        <v>156.4280293782552</v>
+        <v>154.4488128662109</v>
       </c>
       <c r="L136">
-        <v>35.50297108634812</v>
+        <v>67.25110516534485</v>
       </c>
       <c r="M136">
-        <v>40.93594468291386</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13">
+        <v>60.44875792279572</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15">
       <c r="A137" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B137">
-        <v>152.1062469482422</v>
+        <v>158.4757232666016</v>
       </c>
       <c r="C137">
-        <v>153.7359924316406</v>
+        <v>162.2163391113281</v>
       </c>
       <c r="D137">
-        <v>151.617919921875</v>
+        <v>158.4757232666016</v>
       </c>
       <c r="E137">
-        <v>152.9801788330078</v>
+        <v>159.0213012695312</v>
       </c>
       <c r="F137">
-        <v>2570232</v>
+        <v>5717584</v>
       </c>
       <c r="G137">
-        <v>155.3906320922862</v>
+        <v>155.1269722477682</v>
       </c>
       <c r="H137">
-        <v>156.3768913269043</v>
+        <v>153.5617767333984</v>
       </c>
       <c r="I137">
-        <v>156.2659856160482</v>
+        <v>154.3622685750325</v>
       </c>
       <c r="L137">
-        <v>40.10311206285733</v>
+        <v>68.89056045913424</v>
       </c>
       <c r="M137">
-        <v>43.50268592265838</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13">
+        <v>61.60055797838157</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15">
       <c r="A138" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B138">
-        <v>153.0135192871094</v>
+        <v>158.9936218261719</v>
       </c>
       <c r="C138">
-        <v>155.3403167724609</v>
+        <v>159.5204925537109</v>
       </c>
       <c r="D138">
-        <v>152.1689910888672</v>
+        <v>156.0321807861328</v>
       </c>
       <c r="E138">
-        <v>152.1689910888672</v>
+        <v>158.9938201904297</v>
       </c>
       <c r="F138">
-        <v>2164224</v>
+        <v>5470832</v>
       </c>
       <c r="G138">
-        <v>155.0977556374299</v>
+        <v>155.4785038789192</v>
       </c>
       <c r="H138">
-        <v>156.0077964782715</v>
+        <v>153.8345481872558</v>
       </c>
       <c r="I138">
-        <v>156.0603495279948</v>
+        <v>154.3399546305339</v>
       </c>
       <c r="L138">
-        <v>37.40285315268132</v>
+        <v>68.69606801974027</v>
       </c>
       <c r="M138">
-        <v>41.74490903548993</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13">
+        <v>61.50359241466106</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15">
       <c r="A139" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B139">
-        <v>152.160888671875</v>
+        <v>158.9976654052734</v>
       </c>
       <c r="C139">
-        <v>154.8130035400391</v>
+        <v>160.3766021728516</v>
       </c>
       <c r="D139">
-        <v>150.1511840820312</v>
+        <v>156.854736328125</v>
       </c>
       <c r="E139">
-        <v>154.8130035400391</v>
+        <v>156.854736328125</v>
       </c>
       <c r="F139">
-        <v>446336</v>
+        <v>3153920</v>
       </c>
       <c r="G139">
-        <v>155.0718690831216</v>
+        <v>155.6036159197561</v>
       </c>
       <c r="H139">
-        <v>155.8936210632324</v>
+        <v>154.0284744262695</v>
       </c>
       <c r="I139">
-        <v>155.9972717285156</v>
+        <v>154.2980265299479</v>
       </c>
       <c r="L139">
-        <v>49.79780116139115</v>
+        <v>55.07920119108204</v>
       </c>
       <c r="M139">
-        <v>48.98103503579931</v>
-      </c>
-    </row>
-    <row r="140" spans="1:13">
+        <v>54.33416327644947</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15">
       <c r="A140" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B140">
-        <v>154.8029327392578</v>
+        <v>156.8644866943359</v>
       </c>
       <c r="C140">
-        <v>158.7181243896484</v>
+        <v>159.4134216308594</v>
       </c>
       <c r="D140">
-        <v>154.3188323974609</v>
+        <v>156.8543853759766</v>
       </c>
       <c r="E140">
-        <v>158.1656341552734</v>
+        <v>159.2935943603516</v>
       </c>
       <c r="F140">
-        <v>3437040</v>
+        <v>3126712</v>
       </c>
       <c r="G140">
-        <v>155.3531204533173</v>
+        <v>155.9390685052648</v>
       </c>
       <c r="H140">
-        <v>155.9944175720215</v>
+        <v>154.568692779541</v>
       </c>
       <c r="I140">
-        <v>156.1310012817383</v>
+        <v>154.3424682617188</v>
       </c>
       <c r="L140">
-        <v>60.85492221180346</v>
+        <v>64.18505762047307</v>
       </c>
       <c r="M140">
-        <v>56.3799099834111</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13">
+        <v>60.05189377726958</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15">
       <c r="A141" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B141">
-        <v>158.1668090820312</v>
+        <v>159.3264923095703</v>
       </c>
       <c r="C141">
-        <v>159.2307281494141</v>
+        <v>159.8326416015625</v>
       </c>
       <c r="D141">
-        <v>156.9849548339844</v>
+        <v>158.2184600830078</v>
       </c>
       <c r="E141">
-        <v>159.2307281494141</v>
+        <v>159.4245147705078</v>
       </c>
       <c r="F141">
-        <v>3091176</v>
+        <v>1520952</v>
       </c>
       <c r="G141">
-        <v>155.7056302438715</v>
+        <v>156.2559272566505</v>
       </c>
       <c r="H141">
-        <v>156.1901611328125</v>
+        <v>155.1056785583496</v>
       </c>
       <c r="I141">
-        <v>156.3183715820313</v>
+        <v>154.4041392008463</v>
       </c>
       <c r="L141">
-        <v>63.71148194061051</v>
+        <v>64.61819599233662</v>
       </c>
       <c r="M141">
-        <v>58.44185513474115</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13">
+        <v>60.33897298441161</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15">
       <c r="A142" s="1" t="s">
         <v>154</v>
       </c>
       <c r="B142">
-        <v>159.2243041992188</v>
+        <v>159.4031677246094</v>
       </c>
       <c r="C142">
-        <v>159.4224243164062</v>
+        <v>159.9257507324219</v>
       </c>
       <c r="D142">
-        <v>158.2792205810547</v>
+        <v>158.1517333984375</v>
       </c>
       <c r="E142">
-        <v>158.5859375</v>
+        <v>159.6247406005859</v>
       </c>
       <c r="F142">
-        <v>34632</v>
+        <v>493720</v>
       </c>
       <c r="G142">
-        <v>155.967476358065</v>
+        <v>156.5621830151901</v>
       </c>
       <c r="H142">
-        <v>156.2485359191895</v>
+        <v>155.6074188232422</v>
       </c>
       <c r="I142">
-        <v>156.3792826334635</v>
+        <v>154.4995005289714</v>
       </c>
       <c r="L142">
-        <v>60.69498906538527</v>
+        <v>65.3394091360037</v>
       </c>
       <c r="M142">
-        <v>56.6946335659324</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13">
+        <v>60.80290764855148</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15">
       <c r="A143" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B143">
-        <v>158.4908294677734</v>
+        <v>159.6083984375</v>
       </c>
       <c r="C143">
-        <v>158.4908294677734</v>
+        <v>161.1602020263672</v>
       </c>
       <c r="D143">
-        <v>155.8780364990234</v>
+        <v>157.5444183349609</v>
       </c>
       <c r="E143">
-        <v>156.4910125732422</v>
+        <v>161.1602020263672</v>
       </c>
       <c r="F143">
-        <v>1162776</v>
+        <v>1171576</v>
       </c>
       <c r="G143">
-        <v>156.0150705594448</v>
+        <v>156.9801847434789</v>
       </c>
       <c r="H143">
-        <v>156.133519744873</v>
+        <v>156.1537742614746</v>
       </c>
       <c r="I143">
-        <v>156.3929046630859</v>
+        <v>154.5824295043945</v>
       </c>
       <c r="L143">
-        <v>51.74091016564589</v>
+        <v>70.52307670092227</v>
       </c>
       <c r="M143">
-        <v>51.32564116760094</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13">
+        <v>64.25593703775624</v>
+      </c>
+      <c r="O143" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15">
       <c r="A144" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B144">
-        <v>156.5037841796875</v>
+        <v>161.1131744384766</v>
       </c>
       <c r="C144">
-        <v>157.5356292724609</v>
+        <v>161.9222412109375</v>
       </c>
       <c r="D144">
-        <v>155.9765777587891</v>
+        <v>159.7688293457031</v>
       </c>
       <c r="E144">
-        <v>156.8356170654297</v>
+        <v>160.3357849121094</v>
       </c>
       <c r="F144">
-        <v>1063480</v>
+        <v>0</v>
       </c>
       <c r="G144">
-        <v>156.0896656963525</v>
+        <v>157.2852393042635</v>
       </c>
       <c r="H144">
-        <v>156.0733123779297</v>
+        <v>156.7188552856445</v>
       </c>
       <c r="I144">
-        <v>156.4126129150391</v>
+        <v>154.7297546386719</v>
       </c>
       <c r="L144">
-        <v>53.02340207414591</v>
+        <v>64.68012074329117</v>
       </c>
       <c r="M144">
-        <v>52.12872882240126</v>
-      </c>
-    </row>
-    <row r="145" spans="1:14">
+        <v>61.14152915093598</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15">
       <c r="A145" s="1" t="s">
         <v>157</v>
       </c>
       <c r="B145">
-        <v>156.8294219970703</v>
+        <v>160.3416442871094</v>
       </c>
       <c r="C145">
-        <v>157.3244323730469</v>
+        <v>161.3772888183594</v>
       </c>
       <c r="D145">
-        <v>156.1566925048828</v>
+        <v>159.9202117919922</v>
       </c>
       <c r="E145">
-        <v>156.3573303222656</v>
+        <v>161.1812286376953</v>
       </c>
       <c r="F145">
         <v>0</v>
       </c>
       <c r="G145">
-        <v>156.1139988441628</v>
+        <v>157.6394201527573</v>
       </c>
       <c r="H145">
-        <v>156.0049240112305</v>
+        <v>157.0198715209961</v>
       </c>
       <c r="I145">
-        <v>156.4952255249023</v>
+        <v>154.982248433431</v>
       </c>
       <c r="L145">
-        <v>50.91085764415919</v>
+        <v>67.7616377039014</v>
       </c>
       <c r="M145">
-        <v>50.87411048265258</v>
-      </c>
-    </row>
-    <row r="146" spans="1:14">
+        <v>63.11587876874999</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15">
       <c r="A146" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B146">
-        <v>156.4188995361328</v>
+        <v>161.1674346923828</v>
       </c>
       <c r="C146">
-        <v>156.7723083496094</v>
+        <v>161.1674346923828</v>
       </c>
       <c r="D146">
-        <v>156.1947479248047</v>
+        <v>158.9795074462891</v>
       </c>
       <c r="E146">
-        <v>156.5297241210938</v>
+        <v>159.4027252197266</v>
       </c>
       <c r="F146">
-        <v>604944</v>
+        <v>0</v>
       </c>
       <c r="G146">
-        <v>156.1517920511565</v>
+        <v>157.7997206133909</v>
       </c>
       <c r="H146">
-        <v>155.8624565124512</v>
+        <v>157.2972991943359</v>
       </c>
       <c r="I146">
-        <v>156.4873799641927</v>
+        <v>155.2660069783529</v>
       </c>
       <c r="L146">
-        <v>51.69131520951922</v>
+        <v>56.16496575574704</v>
       </c>
       <c r="M146">
-        <v>51.32880994627479</v>
-      </c>
-    </row>
-    <row r="147" spans="1:14">
+        <v>56.60085469160495</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15">
       <c r="A147" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B147">
-        <v>156.5728149414062</v>
+        <v>159.3952331542969</v>
       </c>
       <c r="C147">
-        <v>157.7511749267578</v>
+        <v>160.6382751464844</v>
       </c>
       <c r="D147">
-        <v>156.0546569824219</v>
+        <v>159.2707214355469</v>
       </c>
       <c r="E147">
-        <v>157.7511749267578</v>
+        <v>160.4826965332031</v>
       </c>
       <c r="F147">
         <v>0</v>
       </c>
       <c r="G147">
-        <v>156.297190494393</v>
+        <v>158.043627515192</v>
       </c>
       <c r="H147">
-        <v>155.9501708984375</v>
+        <v>157.6830375671387</v>
       </c>
       <c r="I147">
-        <v>156.4822326660156</v>
+        <v>155.5996526082357</v>
       </c>
       <c r="L147">
-        <v>57.12478241634442</v>
+        <v>60.75337202757379</v>
       </c>
       <c r="M147">
-        <v>54.53942310446983</v>
-      </c>
-    </row>
-    <row r="148" spans="1:14">
+        <v>59.34515657407675</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15">
       <c r="A148" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B148">
-        <v>157.7322998046875</v>
+        <v>160.4188385009766</v>
       </c>
       <c r="C148">
-        <v>163.2023773193359</v>
+        <v>161.7491760253906</v>
       </c>
       <c r="D148">
-        <v>157.6656341552734</v>
+        <v>160.0261688232422</v>
       </c>
       <c r="E148">
-        <v>161.6176300048828</v>
+        <v>161.5538024902344</v>
       </c>
       <c r="F148">
-        <v>12247016</v>
+        <v>2319356</v>
       </c>
       <c r="G148">
-        <v>156.7808668135284</v>
+        <v>158.3627343311049</v>
       </c>
       <c r="H148">
-        <v>156.1445007324219</v>
+        <v>158.1821640014649</v>
       </c>
       <c r="I148">
-        <v>156.5511240641276</v>
+        <v>155.8668329874675</v>
       </c>
       <c r="L148">
-        <v>69.38656093902793</v>
+        <v>64.85771164648261</v>
       </c>
       <c r="M148">
-        <v>62.88548305992673</v>
-      </c>
-    </row>
-    <row r="149" spans="1:14">
+        <v>61.91723428574781</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15">
       <c r="A149" s="1" t="s">
         <v>161</v>
       </c>
       <c r="B149">
-        <v>161.6190795898438</v>
+        <v>161.5426788330078</v>
       </c>
       <c r="C149">
-        <v>162.0176239013672</v>
+        <v>162.2222747802734</v>
       </c>
       <c r="D149">
-        <v>158.1008148193359</v>
+        <v>160.6820220947266</v>
       </c>
       <c r="E149">
-        <v>159.6632385253906</v>
+        <v>161.2748260498047</v>
       </c>
       <c r="F149">
-        <v>6864120</v>
+        <v>1486988</v>
       </c>
       <c r="G149">
-        <v>157.0429006055159</v>
+        <v>158.6274699418958</v>
       </c>
       <c r="H149">
-        <v>156.2390403747559</v>
+        <v>158.6190238952637</v>
       </c>
       <c r="I149">
-        <v>156.6366816202799</v>
+        <v>156.1434534708659</v>
       </c>
       <c r="L149">
-        <v>59.68073674493836</v>
+        <v>62.9293787851564</v>
       </c>
       <c r="M149">
-        <v>57.17185319776641</v>
-      </c>
-    </row>
-    <row r="150" spans="1:14">
+        <v>60.83763181257292</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15">
       <c r="A150" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B150">
-        <v>159.6189575195312</v>
+        <v>161.3089141845703</v>
       </c>
       <c r="C150">
-        <v>160.9599761962891</v>
+        <v>162.2913055419922</v>
       </c>
       <c r="D150">
-        <v>157.7230834960938</v>
+        <v>160.4268951416016</v>
       </c>
       <c r="E150">
-        <v>158.1125793457031</v>
+        <v>160.5744934082031</v>
       </c>
       <c r="F150">
-        <v>3108096</v>
+        <v>3425484</v>
       </c>
       <c r="G150">
-        <v>157.140144127351</v>
+        <v>158.8044720751965</v>
       </c>
       <c r="H150">
-        <v>156.126432800293</v>
+        <v>158.9865081787109</v>
       </c>
       <c r="I150">
-        <v>156.7021107991536</v>
+        <v>156.5462956746419</v>
       </c>
       <c r="L150">
-        <v>53.0562677702708</v>
+        <v>58.05468834970615</v>
       </c>
       <c r="M150">
-        <v>53.05313366061846</v>
-      </c>
-    </row>
-    <row r="151" spans="1:14">
+        <v>58.09894668117151</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15">
       <c r="A151" s="1" t="s">
         <v>163</v>
       </c>
       <c r="B151">
-        <v>158.0626831054688</v>
+        <v>160.5872497558594</v>
       </c>
       <c r="C151">
-        <v>158.0895385742188</v>
+        <v>160.8895416259766</v>
       </c>
       <c r="D151">
-        <v>157.0835113525391</v>
+        <v>159.0054931640625</v>
       </c>
       <c r="E151">
-        <v>157.9603424072266</v>
+        <v>160.0879669189453</v>
       </c>
       <c r="F151">
-        <v>0</v>
+        <v>1463676</v>
       </c>
       <c r="G151">
-        <v>157.2147076073397</v>
+        <v>158.9211534246282</v>
       </c>
       <c r="H151">
-        <v>156.1698417663574</v>
+        <v>159.1861686706543</v>
       </c>
       <c r="I151">
-        <v>156.7902603149414</v>
+        <v>156.9264012654622</v>
       </c>
       <c r="J151">
-        <v>158.4216366577149</v>
+        <v>154.9558555094401</v>
       </c>
       <c r="L151">
-        <v>52.41370148456564</v>
+        <v>54.7406452411372</v>
       </c>
       <c r="M151">
-        <v>52.65209707527731</v>
-      </c>
-    </row>
-    <row r="152" spans="1:14">
+        <v>56.20599617612566</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15">
       <c r="A152" s="1" t="s">
         <v>164</v>
       </c>
       <c r="B152">
-        <v>157.9534606933594</v>
+        <v>160.0234832763672</v>
       </c>
       <c r="C152">
-        <v>158.2406921386719</v>
+        <v>160.8203582763672</v>
       </c>
       <c r="D152">
-        <v>155.1837463378906</v>
+        <v>158.9387969970703</v>
       </c>
       <c r="E152">
-        <v>157.5743865966797</v>
+        <v>158.9387969970703</v>
       </c>
       <c r="F152">
-        <v>6028368</v>
+        <v>3299352</v>
       </c>
       <c r="G152">
-        <v>157.2474056972797</v>
+        <v>158.9227573857593</v>
       </c>
       <c r="H152">
-        <v>156.2319618225098</v>
+        <v>159.3664985656738</v>
       </c>
       <c r="I152">
-        <v>156.7954584757487</v>
+        <v>157.2380299886068</v>
       </c>
       <c r="J152">
-        <v>158.4104148026018</v>
+        <v>155.0086097013293</v>
       </c>
       <c r="L152">
-        <v>50.66366186953852</v>
+        <v>47.53079540511792</v>
       </c>
       <c r="M152">
-        <v>51.58741739767516</v>
-      </c>
-    </row>
-    <row r="153" spans="1:14">
+        <v>51.90432700381794</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15">
       <c r="A153" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B153">
-        <v>157.5483245849609</v>
+        <v>159.0084838867188</v>
       </c>
       <c r="C153">
-        <v>159.8736419677734</v>
+        <v>160.9124450683594</v>
       </c>
       <c r="D153">
-        <v>156.6267242431641</v>
+        <v>159.0052490234375</v>
       </c>
       <c r="E153">
-        <v>156.7639007568359</v>
+        <v>160.7488250732422</v>
       </c>
       <c r="F153">
-        <v>5395496</v>
+        <v>2644444</v>
       </c>
       <c r="G153">
-        <v>157.2034507026939</v>
+        <v>159.0887635391668</v>
       </c>
       <c r="H153">
-        <v>156.4456306457519</v>
+        <v>159.5946151733398</v>
       </c>
       <c r="I153">
-        <v>156.7278772989909</v>
+        <v>157.5885543823242</v>
       </c>
       <c r="J153">
-        <v>158.3886066695453</v>
+        <v>155.0846390440036</v>
       </c>
       <c r="L153">
-        <v>46.9595242966486</v>
+        <v>57.4591272810614</v>
       </c>
       <c r="M153">
-        <v>49.33151515033027</v>
-      </c>
-    </row>
-    <row r="154" spans="1:14">
+        <v>57.43065964703803</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15">
       <c r="A154" s="1" t="s">
         <v>166</v>
       </c>
       <c r="B154">
-        <v>156.7471618652344</v>
+        <v>160.7564697265625</v>
       </c>
       <c r="C154">
-        <v>159.7950592041016</v>
+        <v>162.2205352783203</v>
       </c>
       <c r="D154">
-        <v>155.5556945800781</v>
+        <v>159.9117126464844</v>
       </c>
       <c r="E154">
-        <v>158.6723327636719</v>
+        <v>161.8842468261719</v>
       </c>
       <c r="F154">
-        <v>5080272</v>
+        <v>1180988</v>
       </c>
       <c r="G154">
-        <v>157.3369854355101</v>
+        <v>159.34289838344</v>
       </c>
       <c r="H154">
-        <v>156.7301071166992</v>
+        <v>159.8383865356445</v>
       </c>
       <c r="I154">
-        <v>156.7489629109701</v>
+        <v>158.0168904622396</v>
       </c>
       <c r="J154">
-        <v>158.3923646310569</v>
+        <v>155.1747000742311</v>
       </c>
       <c r="L154">
-        <v>55.56540863069226</v>
+        <v>62.4706252202535</v>
       </c>
       <c r="M154">
-        <v>54.38928763085777</v>
-      </c>
-    </row>
-    <row r="155" spans="1:14">
+        <v>60.49698243540318</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15">
       <c r="A155" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B155">
-        <v>158.6427917480469</v>
+        <v>161.8842468261719</v>
       </c>
       <c r="C155">
-        <v>158.6427917480469</v>
+        <v>164.4055328369141</v>
       </c>
       <c r="D155">
-        <v>155.8668212890625</v>
+        <v>161.1925811767578</v>
       </c>
       <c r="E155">
-        <v>155.9160308837891</v>
+        <v>164.3577117919922</v>
       </c>
       <c r="F155">
-        <v>827048</v>
+        <v>4975772</v>
       </c>
       <c r="G155">
-        <v>157.20780774899</v>
+        <v>159.7987905114902</v>
       </c>
       <c r="H155">
-        <v>156.9134185791016</v>
+        <v>160.1835327148438</v>
       </c>
       <c r="I155">
-        <v>156.6886606852214</v>
+        <v>158.3234507242838</v>
       </c>
       <c r="J155">
-        <v>158.3595655085766</v>
+        <v>155.296329368506</v>
       </c>
       <c r="L155">
-        <v>43.97293408032208</v>
+        <v>70.87834590546404</v>
       </c>
       <c r="M155">
-        <v>47.07974437350791</v>
-      </c>
-    </row>
-    <row r="156" spans="1:14">
+        <v>66.20748917140597</v>
+      </c>
+      <c r="O155" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15">
       <c r="A156" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B156">
-        <v>155.906005859375</v>
+        <v>164.3577117919922</v>
       </c>
       <c r="C156">
-        <v>155.9411163330078</v>
+        <v>165.2384033203125</v>
       </c>
       <c r="D156">
-        <v>151.6807708740234</v>
+        <v>163.0954132080078</v>
       </c>
       <c r="E156">
-        <v>153.6064147949219</v>
+        <v>163.4420166015625</v>
       </c>
       <c r="F156">
-        <v>3465312</v>
+        <v>3392712</v>
       </c>
       <c r="G156">
-        <v>156.8804083895292</v>
+        <v>160.1299928833149</v>
       </c>
       <c r="H156">
-        <v>156.9898094177246</v>
+        <v>160.431901550293</v>
       </c>
       <c r="I156">
-        <v>156.4962387084961</v>
+        <v>158.6430455525716</v>
       </c>
       <c r="J156">
-        <v>158.2966098699851</v>
+        <v>155.4042192656326</v>
       </c>
       <c r="L156">
-        <v>36.74609520809998</v>
+        <v>64.82943898577244</v>
       </c>
       <c r="M156">
-        <v>41.98765321470484</v>
-      </c>
-    </row>
-    <row r="157" spans="1:14">
+        <v>62.59965813035638</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15">
       <c r="A157" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B157">
-        <v>153.6252899169922</v>
+        <v>163.4373474121094</v>
       </c>
       <c r="C157">
-        <v>155.6645050048828</v>
+        <v>167.7768249511719</v>
       </c>
       <c r="D157">
-        <v>149.7320251464844</v>
+        <v>163.4373474121094</v>
       </c>
       <c r="E157">
-        <v>150.8899688720703</v>
+        <v>167.3766937255859</v>
       </c>
       <c r="F157">
-        <v>6875112</v>
+        <v>11453508</v>
       </c>
       <c r="G157">
-        <v>156.3358229788512</v>
+        <v>160.7887838689759</v>
       </c>
       <c r="H157">
-        <v>156.8852989196777</v>
+        <v>160.8496711730957</v>
       </c>
       <c r="I157">
-        <v>156.3260080973307</v>
+        <v>159.1300043741862</v>
       </c>
       <c r="J157">
-        <v>158.1985086647147</v>
+        <v>155.5627950862942</v>
       </c>
       <c r="L157">
-        <v>30.18262243231724</v>
+        <v>75.10132604652934</v>
       </c>
       <c r="M157">
-        <v>36.92858339773107</v>
-      </c>
-    </row>
-    <row r="158" spans="1:14">
+        <v>70.13141887475867</v>
+      </c>
+      <c r="O157" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15">
       <c r="A158" s="1" t="s">
         <v>170</v>
       </c>
       <c r="B158">
-        <v>150.9072875976562</v>
+        <v>167.2803497314453</v>
       </c>
       <c r="C158">
-        <v>153.5875701904297</v>
+        <v>169.6618957519531</v>
       </c>
       <c r="D158">
-        <v>150.0826568603516</v>
+        <v>164.7409210205078</v>
       </c>
       <c r="E158">
-        <v>150.4733276367188</v>
+        <v>168.0844879150391</v>
       </c>
       <c r="F158">
-        <v>8139832</v>
+        <v>6586472</v>
       </c>
       <c r="G158">
-        <v>155.8028688568391</v>
+        <v>161.4520296913453</v>
       </c>
       <c r="H158">
-        <v>156.8005157470703</v>
+        <v>161.3042045593262</v>
       </c>
       <c r="I158">
-        <v>156.0840845743815</v>
+        <v>159.6804448445638</v>
       </c>
       <c r="J158">
-        <v>158.0961883861982</v>
+        <v>155.7286453224366</v>
       </c>
       <c r="L158">
-        <v>29.2801992791941</v>
+        <v>76.49082657002992</v>
       </c>
       <c r="M158">
-        <v>36.20797522960397</v>
-      </c>
-      <c r="N158" t="s">
+        <v>71.25291389491105</v>
+      </c>
+      <c r="O158" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="159" spans="1:14">
+    <row r="159" spans="1:15">
       <c r="A159" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B159">
-        <v>150.6658477783203</v>
+        <v>168.0707244873047</v>
       </c>
       <c r="C159">
-        <v>154.7393646240234</v>
+        <v>168.2526397705078</v>
       </c>
       <c r="D159">
-        <v>150.6658477783203</v>
+        <v>166.0265808105469</v>
       </c>
       <c r="E159">
-        <v>153.5383911132812</v>
+        <v>168.1008911132812</v>
       </c>
       <c r="F159">
-        <v>1350544</v>
+        <v>3140968</v>
       </c>
       <c r="G159">
-        <v>155.5970072437884</v>
+        <v>162.056471638794</v>
       </c>
       <c r="H159">
-        <v>156.7367851257324</v>
+        <v>161.866512298584</v>
       </c>
       <c r="I159">
-        <v>155.9429494222005</v>
+        <v>160.1992202758789</v>
       </c>
       <c r="J159">
-        <v>158.035820210398</v>
+        <v>155.8925161276133</v>
       </c>
       <c r="L159">
-        <v>43.3083934357396</v>
+        <v>76.52498221491531</v>
       </c>
       <c r="M159">
-        <v>44.74948716469073</v>
-      </c>
-    </row>
-    <row r="160" spans="1:14">
+        <v>71.27982775690992</v>
+      </c>
+      <c r="O159" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15">
       <c r="A160" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B160">
-        <v>153.51806640625</v>
+        <v>168.0768585205078</v>
       </c>
       <c r="C160">
-        <v>154.5343475341797</v>
+        <v>168.2720489501953</v>
       </c>
       <c r="D160">
-        <v>152.6194763183594</v>
+        <v>166.7213134765625</v>
       </c>
       <c r="E160">
-        <v>152.9762115478516</v>
+        <v>167.6900329589844</v>
       </c>
       <c r="F160">
-        <v>0</v>
+        <v>4624688</v>
       </c>
       <c r="G160">
-        <v>155.3587530896123</v>
+        <v>162.5686135769931</v>
       </c>
       <c r="H160">
-        <v>156.4773139953613</v>
+        <v>162.2863342285156</v>
       </c>
       <c r="I160">
-        <v>155.6966654459635</v>
+        <v>160.6813944498698</v>
       </c>
       <c r="J160">
-        <v>157.9688055261259</v>
+        <v>156.0487746286911</v>
       </c>
       <c r="L160">
-        <v>41.60545434895246</v>
+        <v>73.51531250730268</v>
       </c>
       <c r="M160">
-        <v>43.59645917737643</v>
-      </c>
-    </row>
-    <row r="161" spans="1:13">
+        <v>69.52406667048859</v>
+      </c>
+      <c r="O160" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15">
       <c r="A161" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B161">
-        <v>153.0357360839844</v>
+        <v>167.6743011474609</v>
       </c>
       <c r="C161">
-        <v>153.0788269042969</v>
+        <v>171.8936462402344</v>
       </c>
       <c r="D161">
-        <v>147.3622131347656</v>
+        <v>166.9918823242188</v>
       </c>
       <c r="E161">
-        <v>148.4892272949219</v>
+        <v>169.9320983886719</v>
       </c>
       <c r="F161">
-        <v>152880</v>
+        <v>10046784</v>
       </c>
       <c r="G161">
-        <v>154.7342507446404</v>
+        <v>163.2380212871457</v>
       </c>
       <c r="H161">
-        <v>155.9402389526367</v>
+        <v>162.8117134094238</v>
       </c>
       <c r="I161">
-        <v>155.4099009195964</v>
+        <v>161.1426391601562</v>
       </c>
       <c r="J161">
-        <v>157.8432481985602</v>
+        <v>156.2326597116048</v>
       </c>
       <c r="L161">
-        <v>30.74896233643559</v>
+        <v>78.66630173911454</v>
       </c>
       <c r="M161">
-        <v>35.69178120848746</v>
-      </c>
-    </row>
-    <row r="162" spans="1:13">
+        <v>73.37781639731858</v>
+      </c>
+      <c r="O161" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15">
       <c r="A162" s="1" t="s">
         <v>174</v>
       </c>
       <c r="B162">
-        <v>148.3177947998047</v>
+        <v>169.8896789550781</v>
       </c>
       <c r="C162">
-        <v>149.2108764648438</v>
+        <v>169.9044799804688</v>
       </c>
       <c r="D162">
-        <v>146.6033325195312</v>
+        <v>166.3778686523438</v>
       </c>
       <c r="E162">
-        <v>148.6847991943359</v>
+        <v>166.3778686523438</v>
       </c>
       <c r="F162">
-        <v>663032</v>
+        <v>2172544</v>
       </c>
       <c r="G162">
-        <v>154.1843006037037</v>
+        <v>163.5234619567092</v>
       </c>
       <c r="H162">
-        <v>155.4451820373535</v>
+        <v>163.1493698120117</v>
       </c>
       <c r="I162">
-        <v>155.1549947102864</v>
+        <v>161.510828145345</v>
       </c>
       <c r="J162">
-        <v>157.7219442382394</v>
+        <v>156.3670333399589</v>
       </c>
       <c r="L162">
-        <v>31.62384210311163</v>
+        <v>58.40748653814886</v>
       </c>
       <c r="M162">
-        <v>36.23447579525634</v>
-      </c>
-    </row>
-    <row r="163" spans="1:13">
+        <v>60.34965374658725</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15">
       <c r="A163" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B163">
-        <v>148.6764678955078</v>
+        <v>166.3375244140625</v>
       </c>
       <c r="C163">
-        <v>150.3726501464844</v>
+        <v>166.3375244140625</v>
       </c>
       <c r="D163">
-        <v>148.54296875</v>
+        <v>161.1636047363281</v>
       </c>
       <c r="E163">
-        <v>149.5899353027344</v>
+        <v>162.5772399902344</v>
       </c>
       <c r="F163">
-        <v>0</v>
+        <v>1731520</v>
       </c>
       <c r="G163">
-        <v>153.7666310308883</v>
+        <v>163.4374417779387</v>
       </c>
       <c r="H163">
-        <v>155.1001281738281</v>
+        <v>163.2202217102051</v>
       </c>
       <c r="I163">
-        <v>155.0583084106445</v>
+        <v>161.7238530476888</v>
       </c>
       <c r="J163">
-        <v>157.6142355106168</v>
+        <v>156.4492877326778</v>
       </c>
       <c r="L163">
-        <v>35.84391452404096</v>
+        <v>44.59252113365985</v>
       </c>
       <c r="M163">
-        <v>38.80827023935903</v>
-      </c>
-    </row>
-    <row r="164" spans="1:13">
+        <v>50.10506273651484</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15">
       <c r="A164" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B164">
-        <v>149.5208282470703</v>
+        <v>162.5643005371094</v>
       </c>
       <c r="C164">
-        <v>150.3783721923828</v>
+        <v>162.9129486083984</v>
       </c>
       <c r="D164">
-        <v>148.3820343017578</v>
+        <v>161.5386962890625</v>
       </c>
       <c r="E164">
-        <v>150.2330932617188</v>
+        <v>162.0413208007812</v>
       </c>
       <c r="F164">
         <v>0</v>
       </c>
       <c r="G164">
-        <v>153.4454003246001</v>
+        <v>163.3105216891062</v>
       </c>
       <c r="H164">
-        <v>154.7700019836426</v>
+        <v>163.3054985046387</v>
       </c>
       <c r="I164">
-        <v>154.9666514078776</v>
+        <v>161.8916030883789</v>
       </c>
       <c r="J164">
-        <v>157.5164720371215</v>
+        <v>156.5233543958315</v>
       </c>
       <c r="L164">
-        <v>38.86035264012144</v>
+        <v>42.97986160139067</v>
       </c>
       <c r="M164">
-        <v>40.64167356112462</v>
-      </c>
-    </row>
-    <row r="165" spans="1:13">
+        <v>48.84591512828923</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15">
       <c r="A165" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B165">
-        <v>150.2592468261719</v>
+        <v>162.1157531738281</v>
       </c>
       <c r="C165">
-        <v>151.2142639160156</v>
+        <v>162.164306640625</v>
       </c>
       <c r="D165">
-        <v>148.8986663818359</v>
+        <v>159.9185638427734</v>
       </c>
       <c r="E165">
-        <v>149.0341644287109</v>
+        <v>160.2174835205078</v>
       </c>
       <c r="F165">
-        <v>0</v>
+        <v>627824</v>
       </c>
       <c r="G165">
-        <v>153.0443788795193</v>
+        <v>163.0293364010518</v>
       </c>
       <c r="H165">
-        <v>154.4038436889649</v>
+        <v>163.2573112487793</v>
       </c>
       <c r="I165">
-        <v>154.8594635009766</v>
+        <v>161.9836929321289</v>
       </c>
       <c r="J165">
-        <v>157.404123591977</v>
+        <v>156.5722832584101</v>
       </c>
       <c r="L165">
-        <v>35.37255505535853</v>
+        <v>37.75267827908148</v>
       </c>
       <c r="M165">
-        <v>38.33582622054752</v>
-      </c>
-    </row>
-    <row r="166" spans="1:13">
+        <v>44.72653601239869</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15">
       <c r="A166" s="1" t="s">
         <v>178</v>
       </c>
       <c r="B166">
-        <v>149.0459747314453</v>
+        <v>160.2598724365234</v>
       </c>
       <c r="C166">
-        <v>155.5308990478516</v>
+        <v>160.3844299316406</v>
       </c>
       <c r="D166">
-        <v>148.9810180664062</v>
+        <v>158.4705810546875</v>
       </c>
       <c r="E166">
-        <v>155.1609039306641</v>
+        <v>160.2150115966797</v>
       </c>
       <c r="F166">
-        <v>12389080</v>
+        <v>231176</v>
       </c>
       <c r="G166">
-        <v>153.2367902478052</v>
+        <v>162.7734886915634</v>
       </c>
       <c r="H166">
-        <v>154.3354026794433</v>
+        <v>163.2979255676269</v>
       </c>
       <c r="I166">
-        <v>154.96220703125</v>
+        <v>162.0417053222656</v>
       </c>
       <c r="J166">
-        <v>157.3744120732841</v>
+        <v>156.6205313158706</v>
       </c>
       <c r="L166">
-        <v>57.36920354824724</v>
+        <v>37.74567870724066</v>
       </c>
       <c r="M166">
-        <v>53.0082350333615</v>
-      </c>
-    </row>
-    <row r="167" spans="1:13">
+        <v>44.72103111790974</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15">
       <c r="A167" s="1" t="s">
         <v>179</v>
       </c>
       <c r="B167">
-        <v>155.1553955078125</v>
+        <v>160.1733245849609</v>
       </c>
       <c r="C167">
-        <v>155.4156036376953</v>
+        <v>164.1717224121094</v>
       </c>
       <c r="D167">
-        <v>152.6332397460938</v>
+        <v>159.8277893066406</v>
       </c>
       <c r="E167">
-        <v>153.8541717529297</v>
+        <v>162.4489593505859</v>
       </c>
       <c r="F167">
-        <v>767416</v>
+        <v>3047576</v>
       </c>
       <c r="G167">
-        <v>153.2929158391802</v>
+        <v>162.7439860242018</v>
       </c>
       <c r="H167">
-        <v>154.140552520752</v>
+        <v>163.3962387084961</v>
       </c>
       <c r="I167">
-        <v>154.9913401285807</v>
+        <v>162.1559605916341</v>
       </c>
       <c r="J167">
-        <v>157.3277863736768</v>
+        <v>156.6977290381847</v>
       </c>
       <c r="L167">
-        <v>53.03774399023884</v>
+        <v>47.6194719891591</v>
       </c>
       <c r="M167">
-        <v>50.26132587826827</v>
-      </c>
-    </row>
-    <row r="168" spans="1:13">
+        <v>50.63434886784974</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15">
       <c r="A168" s="1" t="s">
         <v>180</v>
       </c>
       <c r="B168">
-        <v>153.8335723876953</v>
+        <v>162.4505615234375</v>
       </c>
       <c r="C168">
-        <v>153.9097900390625</v>
+        <v>164.1525115966797</v>
       </c>
       <c r="D168">
-        <v>151.3954010009766</v>
+        <v>159.5817108154297</v>
       </c>
       <c r="E168">
-        <v>152.7679290771484</v>
+        <v>163.926513671875</v>
       </c>
       <c r="F168">
-        <v>118728</v>
+        <v>4208896</v>
       </c>
       <c r="G168">
-        <v>153.2451897699045</v>
+        <v>162.8514885376267</v>
       </c>
       <c r="H168">
-        <v>153.6980674743652</v>
+        <v>163.5148742675781</v>
       </c>
       <c r="I168">
-        <v>155.0113047281901</v>
+        <v>162.3203837076823</v>
       </c>
       <c r="J168">
-        <v>157.2673909127956</v>
+        <v>156.7934745300217</v>
       </c>
       <c r="L168">
-        <v>49.53987794643805</v>
+        <v>53.14863897669819</v>
       </c>
       <c r="M168">
-        <v>48.03306413628157</v>
-      </c>
-    </row>
-    <row r="169" spans="1:13">
+        <v>54.12945457132238</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15">
       <c r="A169" s="1" t="s">
         <v>181</v>
       </c>
       <c r="B169">
-        <v>152.8447265625</v>
+        <v>163.8965759277344</v>
       </c>
       <c r="C169">
-        <v>153.0266571044922</v>
+        <v>165.7343444824219</v>
       </c>
       <c r="D169">
-        <v>150.9336242675781</v>
+        <v>162.1241149902344</v>
       </c>
       <c r="E169">
-        <v>151.5712738037109</v>
+        <v>163.7022705078125</v>
       </c>
       <c r="F169">
-        <v>212712</v>
+        <v>1639112</v>
       </c>
       <c r="G169">
-        <v>153.0930155911597</v>
+        <v>162.9288323530981</v>
       </c>
       <c r="H169">
-        <v>153.2934692382813</v>
+        <v>163.6362464904785</v>
       </c>
       <c r="I169">
-        <v>154.9032470703125</v>
+        <v>162.5486348470052</v>
       </c>
       <c r="J169">
-        <v>157.1919456530727</v>
+        <v>156.8849817615156</v>
       </c>
       <c r="L169">
-        <v>45.79664771083822</v>
+        <v>52.20771869579582</v>
       </c>
       <c r="M169">
-        <v>45.63291957763634</v>
-      </c>
-    </row>
-    <row r="170" spans="1:13">
+        <v>53.51025181706406</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15">
       <c r="A170" s="1" t="s">
         <v>182</v>
       </c>
       <c r="B170">
-        <v>151.6313018798828</v>
+        <v>163.8189849853516</v>
       </c>
       <c r="C170">
-        <v>153.2997589111328</v>
+        <v>166.4468231201172</v>
       </c>
       <c r="D170">
-        <v>151.5444641113281</v>
+        <v>163.8189849853516</v>
       </c>
       <c r="E170">
-        <v>152.5376281738281</v>
+        <v>164.6858062744141</v>
       </c>
       <c r="F170">
-        <v>203544</v>
+        <v>1733896</v>
       </c>
       <c r="G170">
-        <v>153.0425258259477</v>
+        <v>163.0885572550359</v>
       </c>
       <c r="H170">
-        <v>153.0147216796875</v>
+        <v>163.8418121337891</v>
       </c>
       <c r="I170">
-        <v>154.715646870931</v>
+        <v>162.7283752441406</v>
       </c>
       <c r="J170">
-        <v>157.1302990639436</v>
+        <v>156.9883039404944</v>
       </c>
       <c r="L170">
-        <v>49.27844922386904</v>
+        <v>56.04718487067477</v>
       </c>
       <c r="M170">
-        <v>47.89710006215804</v>
-      </c>
-    </row>
-    <row r="171" spans="1:13">
+        <v>55.89343847664163</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15">
       <c r="A171" s="1" t="s">
         <v>183</v>
       </c>
       <c r="B171">
-        <v>152.5450897216797</v>
+        <v>164.6625823974609</v>
       </c>
       <c r="C171">
-        <v>153.7620544433594</v>
+        <v>166.7060394287109</v>
       </c>
       <c r="D171">
-        <v>151.9954681396484</v>
+        <v>163.4736785888672</v>
       </c>
       <c r="E171">
-        <v>153.2248077392578</v>
+        <v>164.0996551513672</v>
       </c>
       <c r="F171">
-        <v>1045768</v>
+        <v>2688168</v>
       </c>
       <c r="G171">
-        <v>153.0590969089759</v>
+        <v>163.1804752456115</v>
       </c>
       <c r="H171">
-        <v>152.7779449462891</v>
+        <v>164.0423965454102</v>
       </c>
       <c r="I171">
-        <v>154.5154495239258</v>
+        <v>162.8842132568359</v>
       </c>
       <c r="J171">
-        <v>157.0785707020272</v>
+        <v>157.0824940227576</v>
       </c>
       <c r="L171">
-        <v>51.75754663758303</v>
+        <v>53.18264430010167</v>
       </c>
       <c r="M171">
-        <v>49.5074520823286</v>
-      </c>
-    </row>
-    <row r="172" spans="1:13">
+        <v>54.11308083571045</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15">
       <c r="A172" s="1" t="s">
         <v>184</v>
       </c>
       <c r="B172">
-        <v>153.2218017578125</v>
+        <v>163.8565216064453</v>
       </c>
       <c r="C172">
-        <v>156.2354278564453</v>
+        <v>167.4180450439453</v>
       </c>
       <c r="D172">
-        <v>152.1600952148438</v>
+        <v>163.7601776123047</v>
       </c>
       <c r="E172">
-        <v>156.0947570800781</v>
+        <v>167.4180450439453</v>
       </c>
       <c r="F172">
-        <v>995464</v>
+        <v>6091264</v>
       </c>
       <c r="G172">
-        <v>153.3350660154397</v>
+        <v>163.5657088636418</v>
       </c>
       <c r="H172">
-        <v>152.703963470459</v>
+        <v>164.4663589477539</v>
       </c>
       <c r="I172">
-        <v>154.4324101765951</v>
+        <v>163.1439900716146</v>
       </c>
       <c r="J172">
-        <v>157.0655400580279</v>
+        <v>157.21938873827</v>
       </c>
       <c r="L172">
-        <v>60.76717988704356</v>
+        <v>64.67988484062225</v>
       </c>
       <c r="M172">
-        <v>55.66981346163462</v>
-      </c>
-    </row>
-    <row r="173" spans="1:13">
+        <v>61.57517632723911</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15">
       <c r="A173" s="1" t="s">
         <v>185</v>
       </c>
       <c r="B173">
-        <v>156.0681304931641</v>
+        <v>167.4191284179688</v>
       </c>
       <c r="C173">
-        <v>156.7682647705078</v>
+        <v>167.7939300537109</v>
       </c>
       <c r="D173">
-        <v>155.1015014648438</v>
+        <v>165.9368133544922</v>
       </c>
       <c r="E173">
-        <v>155.3321990966797</v>
+        <v>167.3599395751953</v>
       </c>
       <c r="F173">
-        <v>0</v>
+        <v>417360</v>
       </c>
       <c r="G173">
-        <v>153.5166235682797</v>
+        <v>163.9106389283285</v>
       </c>
       <c r="H173">
-        <v>152.6323783874512</v>
+        <v>164.7969146728516</v>
       </c>
       <c r="I173">
-        <v>154.3937830607096</v>
+        <v>163.3506479899089</v>
       </c>
       <c r="J173">
-        <v>157.0425818995994</v>
+        <v>157.3537006698849</v>
       </c>
       <c r="L173">
-        <v>57.55421467557512</v>
+        <v>64.36849658947432</v>
       </c>
       <c r="M173">
-        <v>53.79129611273181</v>
-      </c>
-    </row>
-    <row r="174" spans="1:13">
+        <v>61.38693190760413</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15">
       <c r="A174" s="1" t="s">
         <v>186</v>
       </c>
       <c r="B174">
-        <v>155.2930908203125</v>
+        <v>167.3191223144531</v>
       </c>
       <c r="C174">
-        <v>157.0214996337891</v>
+        <v>169.1148834228516</v>
       </c>
       <c r="D174">
-        <v>155.0264129638672</v>
+        <v>167.1162109375</v>
       </c>
       <c r="E174">
-        <v>156.1864929199219</v>
+        <v>167.5943603515625</v>
       </c>
       <c r="F174">
-        <v>3538456</v>
+        <v>12185384</v>
       </c>
       <c r="G174">
-        <v>153.7593389638835</v>
+        <v>164.245522694077</v>
       </c>
       <c r="H174">
-        <v>152.5080863952637</v>
+        <v>165.0824203491211</v>
       </c>
       <c r="I174">
-        <v>154.3721455891927</v>
+        <v>163.5926005045573</v>
       </c>
       <c r="J174">
-        <v>157.0312429727163</v>
+        <v>157.4893385464634</v>
       </c>
       <c r="L174">
-        <v>60.2060176931854</v>
+        <v>65.13041999368822</v>
       </c>
       <c r="M174">
-        <v>55.59891993553037</v>
-      </c>
-    </row>
-    <row r="175" spans="1:13">
+        <v>61.8930874354963</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15">
       <c r="A175" s="1" t="s">
         <v>187</v>
       </c>
       <c r="B175">
-        <v>156.1828765869141</v>
+        <v>167.604248046875</v>
       </c>
       <c r="C175">
-        <v>157.4441833496094</v>
+        <v>168.7763977050781</v>
       </c>
       <c r="D175">
-        <v>155.3345336914062</v>
+        <v>166.2812194824219</v>
       </c>
       <c r="E175">
-        <v>157.0088195800781</v>
+        <v>166.4156036376953</v>
       </c>
       <c r="F175">
-        <v>990144</v>
+        <v>292816</v>
       </c>
       <c r="G175">
-        <v>154.0547462926285</v>
+        <v>164.4428027798605</v>
       </c>
       <c r="H175">
-        <v>152.5627258300781</v>
+        <v>165.1853149414063</v>
       </c>
       <c r="I175">
-        <v>154.3938618977865</v>
+        <v>163.767079671224</v>
       </c>
       <c r="J175">
-        <v>157.0309459741383</v>
+        <v>157.6075672231685</v>
       </c>
       <c r="L175">
-        <v>62.72765723044149</v>
+        <v>58.10212783280176</v>
       </c>
       <c r="M175">
-        <v>57.32927825524524</v>
-      </c>
-    </row>
-    <row r="176" spans="1:13">
+        <v>57.79084360654905</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15">
       <c r="A176" s="1" t="s">
         <v>188</v>
       </c>
       <c r="B176">
-        <v>157.0335235595703</v>
+        <v>166.462890625</v>
       </c>
       <c r="C176">
-        <v>157.7037506103516</v>
+        <v>167.6935577392578</v>
       </c>
       <c r="D176">
-        <v>155.8698272705078</v>
+        <v>166.1212005615234</v>
       </c>
       <c r="E176">
-        <v>157.4547882080078</v>
+        <v>166.8362426757812</v>
       </c>
       <c r="F176">
-        <v>1713220</v>
+        <v>0</v>
       </c>
       <c r="G176">
-        <v>154.3638410122084</v>
+        <v>164.6603882249442</v>
       </c>
       <c r="H176">
-        <v>152.7551445007324</v>
+        <v>165.3550262451172</v>
       </c>
       <c r="I176">
-        <v>154.4246973673503</v>
+        <v>164.0148635864258</v>
       </c>
       <c r="J176">
-        <v>157.0365597785604</v>
+        <v>157.7298013351237</v>
       </c>
       <c r="L176">
-        <v>64.1150222646028</v>
+        <v>59.84184096503169</v>
       </c>
       <c r="M176">
-        <v>58.27888339350832</v>
+        <v>58.83925711292492</v>
       </c>
     </row>
     <row r="177" spans="1:13">
@@ -7001,37 +6986,37 @@
         <v>189</v>
       </c>
       <c r="B177">
-        <v>157.4258117675781</v>
+        <v>166.8408203125</v>
       </c>
       <c r="C177">
-        <v>158.8812866210938</v>
+        <v>167.6773071289062</v>
       </c>
       <c r="D177">
-        <v>156.7757720947266</v>
+        <v>166.1932525634766</v>
       </c>
       <c r="E177">
-        <v>158.4746398925781</v>
+        <v>166.4806671142578</v>
       </c>
       <c r="F177">
-        <v>448432</v>
+        <v>1142960</v>
       </c>
       <c r="G177">
-        <v>154.737550001333</v>
+        <v>164.8258681239727</v>
       </c>
       <c r="H177">
-        <v>153.1343780517578</v>
+        <v>165.3102249145508</v>
       </c>
       <c r="I177">
-        <v>154.4488128662109</v>
+        <v>164.2147959391276</v>
       </c>
       <c r="J177">
-        <v>157.0556071972892</v>
+        <v>157.8457068421321</v>
       </c>
       <c r="L177">
-        <v>67.25109461169083</v>
+        <v>57.5685963736918</v>
       </c>
       <c r="M177">
-        <v>60.44665572401465</v>
+        <v>57.53822092462055</v>
       </c>
     </row>
     <row r="178" spans="1:13">
@@ -7039,37 +7024,37 @@
         <v>190</v>
       </c>
       <c r="B178">
-        <v>158.4757232666016</v>
+        <v>166.4317474365234</v>
       </c>
       <c r="C178">
-        <v>162.2163391113281</v>
+        <v>168.5984497070312</v>
       </c>
       <c r="D178">
-        <v>158.4757232666016</v>
+        <v>165.5562744140625</v>
       </c>
       <c r="E178">
-        <v>159.0213012695312</v>
+        <v>168.1063385009766</v>
       </c>
       <c r="F178">
-        <v>5717584</v>
+        <v>2558256</v>
       </c>
       <c r="G178">
-        <v>155.1269819348055</v>
+        <v>165.1240927037003</v>
       </c>
       <c r="H178">
-        <v>153.5617767333984</v>
+        <v>165.3113174438477</v>
       </c>
       <c r="I178">
-        <v>154.3622685750325</v>
+        <v>164.4332138061523</v>
       </c>
       <c r="J178">
-        <v>157.0816428803652</v>
+        <v>157.9816092482095</v>
       </c>
       <c r="L178">
-        <v>68.89055006205065</v>
+        <v>64.50403039304551</v>
       </c>
       <c r="M178">
-        <v>61.59844392434813</v>
+        <v>61.70715796703309</v>
       </c>
     </row>
     <row r="179" spans="1:13">
@@ -7077,37 +7062,37 @@
         <v>191</v>
       </c>
       <c r="B179">
-        <v>158.9936218261719</v>
+        <v>168.1102752685547</v>
       </c>
       <c r="C179">
-        <v>159.5204925537109</v>
+        <v>168.7749176025391</v>
       </c>
       <c r="D179">
-        <v>156.0321807861328</v>
+        <v>167.3344879150391</v>
       </c>
       <c r="E179">
-        <v>158.9938201904297</v>
+        <v>168.3475494384766</v>
       </c>
       <c r="F179">
-        <v>5470832</v>
+        <v>2337728</v>
       </c>
       <c r="G179">
-        <v>155.4785126853168</v>
+        <v>165.4171342250436</v>
       </c>
       <c r="H179">
-        <v>153.8345481872558</v>
+        <v>165.3236503601074</v>
       </c>
       <c r="I179">
-        <v>154.3399546305339</v>
+        <v>164.6689712524414</v>
       </c>
       <c r="J179">
-        <v>157.1069697321541</v>
+        <v>158.1189064692726</v>
       </c>
       <c r="L179">
-        <v>68.69605769598807</v>
+        <v>65.44676979063107</v>
       </c>
       <c r="M179">
-        <v>61.50148783003456</v>
+        <v>62.29862864036451</v>
       </c>
     </row>
     <row r="180" spans="1:13">
@@ -7115,37 +7100,37 @@
         <v>192</v>
       </c>
       <c r="B180">
-        <v>158.9976654052734</v>
+        <v>168.3572235107422</v>
       </c>
       <c r="C180">
-        <v>160.3766021728516</v>
+        <v>168.5035552978516</v>
       </c>
       <c r="D180">
-        <v>156.854736328125</v>
+        <v>167.3099365234375</v>
       </c>
       <c r="E180">
-        <v>156.854736328125</v>
+        <v>168.1808319091797</v>
       </c>
       <c r="F180">
-        <v>3153920</v>
+        <v>0</v>
       </c>
       <c r="G180">
-        <v>155.6036239255721</v>
+        <v>165.668379469056</v>
       </c>
       <c r="H180">
-        <v>154.0284744262695</v>
+        <v>165.3481903076172</v>
       </c>
       <c r="I180">
-        <v>154.2980265299479</v>
+        <v>164.9225158691406</v>
       </c>
       <c r="J180">
-        <v>157.1036288923657</v>
+        <v>158.2521770049005</v>
       </c>
       <c r="L180">
-        <v>55.0791953823933</v>
+        <v>64.12254965617639</v>
       </c>
       <c r="M180">
-        <v>54.33270519250303</v>
+        <v>61.59052234495796</v>
       </c>
     </row>
     <row r="181" spans="1:13">
@@ -7153,37 +7138,37 @@
         <v>193</v>
       </c>
       <c r="B181">
-        <v>156.8644866943359</v>
+        <v>168.2027587890625</v>
       </c>
       <c r="C181">
-        <v>159.4134216308594</v>
+        <v>169.7500152587891</v>
       </c>
       <c r="D181">
-        <v>156.8543853759766</v>
+        <v>167.1997985839844</v>
       </c>
       <c r="E181">
-        <v>159.2935943603516</v>
+        <v>169.31201171875</v>
       </c>
       <c r="F181">
-        <v>3126712</v>
+        <v>2981632</v>
       </c>
       <c r="G181">
-        <v>155.9390757832793</v>
+        <v>165.9996187644827</v>
       </c>
       <c r="H181">
-        <v>154.568692779541</v>
+        <v>165.3171859741211</v>
       </c>
       <c r="I181">
-        <v>154.3424682617188</v>
+        <v>165.2299840291341</v>
       </c>
       <c r="J181">
-        <v>157.1326350575046</v>
+        <v>158.3986648819052</v>
       </c>
       <c r="L181">
-        <v>64.18505167303779</v>
+        <v>68.92234876675225</v>
       </c>
       <c r="M181">
-        <v>60.05033835585796</v>
+        <v>64.53591870114298</v>
       </c>
     </row>
     <row r="182" spans="1:13">
@@ -7191,37 +7176,37 @@
         <v>194</v>
       </c>
       <c r="B182">
-        <v>159.3264923095703</v>
+        <v>169.2581634521484</v>
       </c>
       <c r="C182">
-        <v>159.52490234375</v>
+        <v>169.3124237060547</v>
       </c>
       <c r="D182">
-        <v>158.2184600830078</v>
+        <v>168.7614898681641</v>
       </c>
       <c r="E182">
-        <v>158.5753631591797</v>
+        <v>168.7614898681641</v>
       </c>
       <c r="F182">
-        <v>2273904</v>
+        <v>420568</v>
       </c>
       <c r="G182">
-        <v>156.1787382719976</v>
+        <v>166.2506979557265</v>
       </c>
       <c r="H182">
-        <v>155.0632209777832</v>
+        <v>165.4363670349121</v>
       </c>
       <c r="I182">
-        <v>154.3758341471354</v>
+        <v>165.5574071248372</v>
       </c>
       <c r="J182">
-        <v>157.1517440389837</v>
+        <v>158.5359208419881</v>
       </c>
       <c r="L182">
-        <v>60.1457309104022</v>
+        <v>64.21846231170009</v>
       </c>
       <c r="M182">
-        <v>57.75694959041146</v>
+        <v>62.04235085518636</v>
       </c>
     </row>
   </sheetData>
